--- a/fuentes/contenidos/grado11/guion11/ESCALETA_FINAL_CN_11_11_CO_.xlsx
+++ b/fuentes/contenidos/grado11/guion11/ESCALETA_FINAL_CN_11_11_CO_.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LyzMarcela\Documents\GitHub\CienciasNaturales\fuentes\contenidos\grado11\guion11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -17,9 +17,9 @@
     <sheet name="DATOS" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$U$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$U$44</definedName>
   </definedNames>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="235">
   <si>
     <t>Asignatura</t>
   </si>
@@ -683,9 +683,6 @@
     <t xml:space="preserve"> Motor que incluye preguntas de respuesta abierta del tema Los hidrocarburos</t>
   </si>
   <si>
-    <t>Diaporama F1-02</t>
-  </si>
-  <si>
     <t>Recursos adicionales 01</t>
   </si>
   <si>
@@ -732,13 +729,28 @@
   </si>
   <si>
     <t xml:space="preserve">SECUENCIA DE IMÁGENES </t>
+  </si>
+  <si>
+    <t>Los hidrocarburos cíclicos</t>
+  </si>
+  <si>
+    <t>Diaporama F1-03</t>
+  </si>
+  <si>
+    <t>Interactivo que permite mostrar las caracteristicas y nomnclatura de los hidrocarburos cíclicos</t>
+  </si>
+  <si>
+    <t>INTERACTIVO</t>
+  </si>
+  <si>
+    <t>Recurso F7-01</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -766,15 +778,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="13">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -825,30 +830,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -952,41 +945,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1019,17 +977,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -1123,7 +1070,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1144,26 +1091,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1171,84 +1111,27 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1256,11 +1139,42 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1268,71 +1182,22 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1613,10 +1478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U97"/>
+  <dimension ref="A1:U98"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="F40" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,181 +1509,181 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="47" t="s">
+      <c r="K1" s="50" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="49" t="s">
+      <c r="M1" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="50"/>
-      <c r="O1" s="43" t="s">
+      <c r="N1" s="53"/>
+      <c r="O1" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="43" t="s">
+      <c r="P1" s="46" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="43" t="s">
+      <c r="Q1" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="46" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="10" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
-      <c r="H2" s="44"/>
-      <c r="I2" s="44"/>
-      <c r="J2" s="44"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="42" t="s">
+      <c r="A2" s="47"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="51"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="34" t="s">
         <v>87</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="44"/>
-      <c r="P2" s="44"/>
-      <c r="Q2" s="44"/>
-      <c r="R2" s="44"/>
-      <c r="S2" s="44"/>
-      <c r="T2" s="44"/>
-      <c r="U2" s="44"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D3" s="54" t="s">
+      <c r="D3" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E3" s="55" t="s">
+      <c r="E3" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="54" t="s">
+      <c r="F3" s="22"/>
+      <c r="G3" s="25" t="s">
         <v>126</v>
       </c>
-      <c r="H3" s="56">
+      <c r="H3" s="26">
         <v>1</v>
       </c>
-      <c r="I3" s="56" t="s">
+      <c r="I3" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="57" t="s">
+      <c r="J3" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="K3" s="52" t="s">
+      <c r="K3" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L3" s="58" t="s">
+      <c r="L3" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59" t="s">
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="P3" s="60" t="s">
+      <c r="P3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="61">
+      <c r="Q3" s="1">
         <v>6</v>
       </c>
-      <c r="R3" s="61" t="s">
+      <c r="R3" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="S3" s="61" t="s">
+      <c r="S3" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="T3" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="U3" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="T3" s="98" t="s">
-        <v>219</v>
-      </c>
-      <c r="U3" s="61" t="s">
-        <v>216</v>
-      </c>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="38"/>
-      <c r="N4" s="38"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="36"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="30"/>
       <c r="Q4" s="1"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -1826,32 +1691,32 @@
       <c r="U4" s="2"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="25" t="s">
+      <c r="E5" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="F5" s="26"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="35"/>
-      <c r="M5" s="38"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="37"/>
-      <c r="P5" s="36"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="29"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="31"/>
+      <c r="P5" s="30"/>
       <c r="Q5" s="1"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
@@ -1859,44 +1724,44 @@
       <c r="U5" s="2"/>
     </row>
     <row r="6" spans="1:21" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="25" t="s">
+      <c r="E6" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F6" s="26"/>
-      <c r="G6" s="30" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="25" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="31">
+      <c r="H6" s="26">
         <v>2</v>
       </c>
-      <c r="I6" s="31" t="s">
+      <c r="I6" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="32" t="s">
+      <c r="J6" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="K6" s="34" t="s">
+      <c r="K6" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="L6" s="35" t="s">
+      <c r="L6" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="M6" s="38"/>
-      <c r="N6" s="38"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="36" t="s">
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="31"/>
+      <c r="P6" s="30" t="s">
         <v>19</v>
       </c>
       <c r="Q6" s="1" t="s">
@@ -1916,46 +1781,46 @@
       </c>
     </row>
     <row r="7" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E7" s="25" t="s">
+      <c r="E7" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="F7" s="26"/>
-      <c r="G7" s="30" t="s">
+      <c r="F7" s="22"/>
+      <c r="G7" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="H7" s="31">
+      <c r="H7" s="26">
         <v>3</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="I7" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="K7" s="34" t="s">
+      <c r="K7" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="35" t="s">
+      <c r="L7" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M7" s="38"/>
-      <c r="N7" s="38" t="s">
+      <c r="M7" s="32"/>
+      <c r="N7" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="O7" s="37"/>
-      <c r="P7" s="36" t="s">
+      <c r="O7" s="31"/>
+      <c r="P7" s="30" t="s">
         <v>19</v>
       </c>
       <c r="Q7" s="1">
@@ -1975,46 +1840,46 @@
       </c>
     </row>
     <row r="8" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="25" t="s">
+      <c r="E8" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="30" t="s">
+      <c r="F8" s="22"/>
+      <c r="G8" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="H8" s="31">
+      <c r="H8" s="26">
         <v>4</v>
       </c>
-      <c r="I8" s="31" t="s">
+      <c r="I8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J8" s="32" t="s">
+      <c r="J8" s="27" t="s">
         <v>146</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="35" t="s">
+      <c r="L8" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M8" s="38"/>
-      <c r="N8" s="38" t="s">
+      <c r="M8" s="32"/>
+      <c r="N8" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="O8" s="37"/>
-      <c r="P8" s="36" t="s">
+      <c r="O8" s="31"/>
+      <c r="P8" s="30" t="s">
         <v>19</v>
       </c>
       <c r="Q8" s="1">
@@ -2034,203 +1899,203 @@
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="41" t="s">
+      <c r="F9" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="30"/>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="35"/>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="37"/>
-      <c r="P9" s="36"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="29"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="30"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
       <c r="U9" s="2"/>
     </row>
-    <row r="10" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:21" s="70" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="68" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="38" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="22" t="s">
+      <c r="D10" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="G10" s="30" t="s">
+      <c r="G10" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="39">
         <v>5</v>
       </c>
-      <c r="I10" s="31" t="s">
+      <c r="I10" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="32" t="s">
+      <c r="J10" s="40" t="s">
         <v>149</v>
       </c>
-      <c r="K10" s="34" t="s">
+      <c r="K10" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="L10" s="35" t="s">
+      <c r="L10" s="41" t="s">
         <v>31</v>
       </c>
-      <c r="M10" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="N10" s="38"/>
-      <c r="O10" s="37"/>
-      <c r="P10" s="36" t="s">
+      <c r="M10" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="42"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="Q10" s="1">
+      <c r="Q10" s="44">
         <v>6</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R10" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="S10" s="11" t="s">
+      <c r="S10" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="T10" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="U10" s="2" t="s">
+      <c r="T10" s="45" t="s">
+        <v>234</v>
+      </c>
+      <c r="U10" s="69" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="51" t="s">
+      <c r="A11" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="52" t="s">
+      <c r="B11" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="53" t="s">
+      <c r="C11" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="71" t="s">
+      <c r="D11" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="72" t="s">
+      <c r="E11" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="53" t="s">
+      <c r="F11" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="G11" s="71" t="s">
+      <c r="G11" s="25" t="s">
         <v>154</v>
       </c>
-      <c r="H11" s="73">
+      <c r="H11" s="26">
         <v>6</v>
       </c>
-      <c r="I11" s="73" t="s">
+      <c r="I11" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="74" t="s">
+      <c r="J11" s="27" t="s">
         <v>209</v>
       </c>
-      <c r="K11" s="55" t="s">
+      <c r="K11" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L11" s="75" t="s">
+      <c r="L11" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59" t="s">
+      <c r="M11" s="32"/>
+      <c r="N11" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="O11" s="76"/>
-      <c r="P11" s="100" t="s">
+      <c r="O11" s="31"/>
+      <c r="P11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q11" s="61">
+      <c r="Q11" s="1">
         <v>6</v>
       </c>
-      <c r="R11" s="61" t="s">
+      <c r="R11" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="S11" s="99" t="s">
+      <c r="S11" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="T11" s="98" t="s">
-        <v>220</v>
-      </c>
-      <c r="U11" s="61" t="s">
+      <c r="T11" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="U11" s="2" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B12" s="16" t="s">
+      <c r="B12" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C12" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="25" t="s">
+      <c r="E12" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="F12" s="26"/>
-      <c r="G12" s="30" t="s">
+      <c r="F12" s="22"/>
+      <c r="G12" s="25" t="s">
         <v>151</v>
       </c>
-      <c r="H12" s="31">
+      <c r="H12" s="26">
         <v>7</v>
       </c>
-      <c r="I12" s="31" t="s">
+      <c r="I12" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J12" s="32" t="s">
+      <c r="J12" s="27" t="s">
         <v>152</v>
       </c>
-      <c r="K12" s="34" t="s">
+      <c r="K12" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L12" s="35" t="s">
+      <c r="L12" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="38"/>
-      <c r="N12" s="38" t="s">
+      <c r="M12" s="32"/>
+      <c r="N12" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="O12" s="37"/>
-      <c r="P12" s="36" t="s">
+      <c r="O12" s="31"/>
+      <c r="P12" s="30" t="s">
         <v>19</v>
       </c>
       <c r="Q12" s="1">
@@ -2250,32 +2115,32 @@
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="21" t="s">
         <v>103</v>
       </c>
-      <c r="F13" s="26"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="34"/>
-      <c r="L13" s="35"/>
-      <c r="M13" s="38"/>
-      <c r="N13" s="38"/>
-      <c r="O13" s="37"/>
-      <c r="P13" s="36"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="31"/>
+      <c r="P13" s="30"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
@@ -2283,46 +2148,46 @@
       <c r="U13" s="2"/>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D14" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E14" s="25" t="s">
+      <c r="E14" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="30" t="s">
+      <c r="F14" s="22"/>
+      <c r="G14" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="H14" s="31">
+      <c r="H14" s="26">
         <v>8</v>
       </c>
-      <c r="I14" s="31" t="s">
+      <c r="I14" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="32" t="s">
+      <c r="J14" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="K14" s="34" t="s">
+      <c r="K14" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L14" s="35" t="s">
+      <c r="L14" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M14" s="38"/>
-      <c r="N14" s="38" t="s">
+      <c r="M14" s="32"/>
+      <c r="N14" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="O14" s="37"/>
-      <c r="P14" s="36" t="s">
+      <c r="O14" s="31"/>
+      <c r="P14" s="30" t="s">
         <v>19</v>
       </c>
       <c r="Q14" s="1">
@@ -2342,103 +2207,103 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="83" t="s">
+      <c r="A15" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="84" t="s">
+      <c r="B15" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C15" s="85" t="s">
+      <c r="C15" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D15" s="86" t="s">
+      <c r="D15" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="88"/>
-      <c r="G15" s="86" t="s">
-        <v>218</v>
-      </c>
-      <c r="H15" s="89">
+      <c r="E15" s="21"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="H15" s="26">
         <v>9</v>
       </c>
-      <c r="I15" s="89" t="s">
+      <c r="I15" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="J15" s="90" t="s">
-        <v>217</v>
-      </c>
-      <c r="K15" s="87" t="s">
+      <c r="J15" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="K15" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L15" s="91" t="s">
+      <c r="L15" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="M15" s="92" t="s">
+      <c r="M15" s="32" t="s">
         <v>36</v>
       </c>
-      <c r="N15" s="92"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="94" t="s">
+      <c r="N15" s="32"/>
+      <c r="O15" s="31"/>
+      <c r="P15" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q15" s="95">
+      <c r="Q15" s="1">
         <v>6</v>
       </c>
-      <c r="R15" s="96" t="s">
+      <c r="R15" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="S15" s="96" t="s">
+      <c r="S15" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="T15" s="96" t="s">
-        <v>165</v>
-      </c>
-      <c r="U15" s="97" t="s">
+      <c r="T15" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="U15" s="2" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E16" s="25" t="s">
+      <c r="E16" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="F16" s="26"/>
-      <c r="G16" s="30" t="s">
+      <c r="F16" s="22"/>
+      <c r="G16" s="25" t="s">
         <v>157</v>
       </c>
-      <c r="H16" s="31">
+      <c r="H16" s="26">
         <v>10</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="32" t="s">
+      <c r="J16" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="K16" s="34" t="s">
+      <c r="K16" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L16" s="35" t="s">
+      <c r="L16" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38" t="s">
+      <c r="M16" s="32"/>
+      <c r="N16" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="O16" s="37"/>
-      <c r="P16" s="36" t="s">
+      <c r="O16" s="31"/>
+      <c r="P16" s="30" t="s">
         <v>19</v>
       </c>
       <c r="Q16" s="1">
@@ -2458,46 +2323,46 @@
       </c>
     </row>
     <row r="17" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E17" s="25" t="s">
+      <c r="E17" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="30" t="s">
+      <c r="F17" s="22"/>
+      <c r="G17" s="25" t="s">
         <v>161</v>
       </c>
-      <c r="H17" s="31">
+      <c r="H17" s="26">
         <v>11</v>
       </c>
-      <c r="I17" s="31" t="s">
+      <c r="I17" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="32" t="s">
+      <c r="J17" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="K17" s="34" t="s">
+      <c r="K17" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L17" s="35" t="s">
+      <c r="L17" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38" t="s">
+      <c r="M17" s="32"/>
+      <c r="N17" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="O17" s="37"/>
-      <c r="P17" s="36" t="s">
+      <c r="O17" s="31"/>
+      <c r="P17" s="30" t="s">
         <v>19</v>
       </c>
       <c r="Q17" s="1">
@@ -2517,46 +2382,46 @@
       </c>
     </row>
     <row r="18" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="16" t="s">
+      <c r="B18" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="17" t="s">
+      <c r="C18" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E18" s="25" t="s">
+      <c r="E18" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="F18" s="26"/>
-      <c r="G18" s="30" t="s">
+      <c r="F18" s="22"/>
+      <c r="G18" s="25" t="s">
         <v>159</v>
       </c>
-      <c r="H18" s="31">
+      <c r="H18" s="26">
         <v>12</v>
       </c>
-      <c r="I18" s="31" t="s">
+      <c r="I18" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="32" t="s">
+      <c r="J18" s="27" t="s">
         <v>160</v>
       </c>
-      <c r="K18" s="34" t="s">
+      <c r="K18" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L18" s="35" t="s">
+      <c r="L18" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38" t="s">
+      <c r="M18" s="32"/>
+      <c r="N18" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="O18" s="37"/>
-      <c r="P18" s="36" t="s">
+      <c r="O18" s="31"/>
+      <c r="P18" s="30" t="s">
         <v>19</v>
       </c>
       <c r="Q18" s="1">
@@ -2576,46 +2441,46 @@
       </c>
     </row>
     <row r="19" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B19" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E19" s="25" t="s">
+      <c r="E19" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="30" t="s">
+      <c r="F19" s="22"/>
+      <c r="G19" s="25" t="s">
         <v>167</v>
       </c>
-      <c r="H19" s="31">
+      <c r="H19" s="26">
         <v>13</v>
       </c>
-      <c r="I19" s="31" t="s">
+      <c r="I19" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="32" t="s">
+      <c r="J19" s="27" t="s">
         <v>168</v>
       </c>
-      <c r="K19" s="34" t="s">
+      <c r="K19" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L19" s="35" t="s">
+      <c r="L19" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38" t="s">
+      <c r="M19" s="32"/>
+      <c r="N19" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="O19" s="37"/>
-      <c r="P19" s="36" t="s">
+      <c r="O19" s="31"/>
+      <c r="P19" s="30" t="s">
         <v>19</v>
       </c>
       <c r="Q19" s="1">
@@ -2635,103 +2500,103 @@
       </c>
     </row>
     <row r="20" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A20" s="62" t="s">
+      <c r="A20" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B20" s="63" t="s">
+      <c r="B20" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C20" s="64" t="s">
+      <c r="C20" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D20" s="77" t="s">
+      <c r="D20" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="101"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="77" t="s">
+      <c r="E20" s="21"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="H20" s="26">
+        <v>14</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" s="27" t="s">
         <v>221</v>
       </c>
-      <c r="H20" s="79">
-        <v>14</v>
-      </c>
-      <c r="I20" s="79" t="s">
+      <c r="K20" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L20" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="N20" s="32"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>6</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S20" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="T20" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="U20" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="H21" s="26">
+        <v>15</v>
+      </c>
+      <c r="I21" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="80" t="s">
-        <v>222</v>
-      </c>
-      <c r="K20" s="65" t="s">
+      <c r="J21" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="K21" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L20" s="81" t="s">
-        <v>31</v>
-      </c>
-      <c r="M20" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="N20" s="66"/>
-      <c r="O20" s="82"/>
-      <c r="P20" s="102" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q20" s="81">
-        <v>6</v>
-      </c>
-      <c r="R20" s="81" t="s">
-        <v>138</v>
-      </c>
-      <c r="S20" s="103" t="s">
-        <v>184</v>
-      </c>
-      <c r="T20" s="104" t="s">
-        <v>185</v>
-      </c>
-      <c r="U20" s="81" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C21" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D21" s="22" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="30" t="s">
-        <v>170</v>
-      </c>
-      <c r="H21" s="31">
-        <v>15</v>
-      </c>
-      <c r="I21" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="32" t="s">
-        <v>208</v>
-      </c>
-      <c r="K21" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="L21" s="35" t="s">
+      <c r="L21" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38" t="s">
+      <c r="M21" s="32"/>
+      <c r="N21" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="O21" s="37"/>
-      <c r="P21" s="36" t="s">
+      <c r="O21" s="31"/>
+      <c r="P21" s="30" t="s">
         <v>19</v>
       </c>
       <c r="Q21" s="1">
@@ -2751,46 +2616,46 @@
       </c>
     </row>
     <row r="22" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B22" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C22" s="17" t="s">
+      <c r="C22" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="40" t="s">
+      <c r="E22" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="F22" s="26"/>
-      <c r="G22" s="30" t="s">
+      <c r="F22" s="22"/>
+      <c r="G22" s="25" t="s">
         <v>194</v>
       </c>
-      <c r="H22" s="31">
+      <c r="H22" s="26">
         <v>16</v>
       </c>
-      <c r="I22" s="31" t="s">
+      <c r="I22" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="32" t="s">
+      <c r="J22" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="K22" s="34" t="s">
+      <c r="K22" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L22" s="35" t="s">
+      <c r="L22" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38" t="s">
+      <c r="M22" s="32"/>
+      <c r="N22" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="O22" s="37"/>
-      <c r="P22" s="36" t="s">
+      <c r="O22" s="31"/>
+      <c r="P22" s="30" t="s">
         <v>20</v>
       </c>
       <c r="Q22" s="1">
@@ -2810,46 +2675,46 @@
       </c>
     </row>
     <row r="23" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E23" s="40" t="s">
+      <c r="E23" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="F23" s="26"/>
-      <c r="G23" s="30" t="s">
+      <c r="F23" s="22"/>
+      <c r="G23" s="25" t="s">
         <v>174</v>
       </c>
-      <c r="H23" s="31">
+      <c r="H23" s="26">
         <v>17</v>
       </c>
-      <c r="I23" s="31" t="s">
+      <c r="I23" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="32" t="s">
+      <c r="J23" s="27" t="s">
         <v>175</v>
       </c>
-      <c r="K23" s="34" t="s">
+      <c r="K23" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L23" s="35" t="s">
+      <c r="L23" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38" t="s">
+      <c r="M23" s="32"/>
+      <c r="N23" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="O23" s="37"/>
-      <c r="P23" s="36" t="s">
+      <c r="O23" s="31"/>
+      <c r="P23" s="30" t="s">
         <v>19</v>
       </c>
       <c r="Q23" s="1">
@@ -2869,32 +2734,32 @@
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C24" s="17" t="s">
+      <c r="C24" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D24" s="22" t="s">
+      <c r="D24" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="21" t="s">
         <v>110</v>
       </c>
-      <c r="F24" s="26"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="31"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="32"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="38"/>
-      <c r="N24" s="38"/>
-      <c r="O24" s="37"/>
-      <c r="P24" s="36"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="32"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="30"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
@@ -2902,46 +2767,46 @@
       <c r="U24" s="2"/>
     </row>
     <row r="25" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C25" s="17" t="s">
+      <c r="C25" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="22" t="s">
+      <c r="D25" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E25" s="25" t="s">
+      <c r="E25" s="21" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="26"/>
-      <c r="G25" s="30" t="s">
+      <c r="F25" s="22"/>
+      <c r="G25" s="25" t="s">
         <v>166</v>
       </c>
-      <c r="H25" s="31">
+      <c r="H25" s="26">
         <v>18</v>
       </c>
-      <c r="I25" s="31" t="s">
+      <c r="I25" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="32" t="s">
+      <c r="J25" s="27" t="s">
         <v>177</v>
       </c>
-      <c r="K25" s="34" t="s">
+      <c r="K25" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L25" s="35" t="s">
+      <c r="L25" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38" t="s">
+      <c r="M25" s="32"/>
+      <c r="N25" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="O25" s="37"/>
-      <c r="P25" s="36" t="s">
+      <c r="O25" s="31"/>
+      <c r="P25" s="30" t="s">
         <v>19</v>
       </c>
       <c r="Q25" s="1">
@@ -2960,877 +2825,879 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
+    <row r="26" spans="1:21" s="67" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="17" t="s">
+      <c r="C26" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="E26" s="25" t="s">
+      <c r="E26" s="55"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="57" t="s">
+        <v>230</v>
+      </c>
+      <c r="H26" s="58">
+        <v>19</v>
+      </c>
+      <c r="I26" s="58" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="59" t="s">
+        <v>232</v>
+      </c>
+      <c r="K26" s="55" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="M26" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="N26" s="61"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="63" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="64">
+        <v>6</v>
+      </c>
+      <c r="R26" s="65" t="s">
+        <v>128</v>
+      </c>
+      <c r="S26" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="T26" s="65" t="s">
+        <v>165</v>
+      </c>
+      <c r="U26" s="66" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="F26" s="26"/>
-      <c r="G26" s="30" t="s">
+      <c r="F27" s="22"/>
+      <c r="G27" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="H26" s="31">
+      <c r="H27" s="26">
+        <v>20</v>
+      </c>
+      <c r="I27" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" s="27" t="s">
+        <v>198</v>
+      </c>
+      <c r="K27" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L27" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M27" s="32"/>
+      <c r="N27" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="O27" s="31"/>
+      <c r="P27" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="I26" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="32" t="s">
-        <v>198</v>
-      </c>
-      <c r="K26" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="L26" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M26" s="38"/>
-      <c r="N26" s="38" t="s">
-        <v>47</v>
-      </c>
-      <c r="O26" s="37"/>
-      <c r="P26" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="1">
+      <c r="Q27" s="1">
         <v>6</v>
       </c>
-      <c r="R26" s="11" t="s">
+      <c r="R27" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="S26" s="11" t="s">
+      <c r="S27" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="T26" s="11" t="s">
+      <c r="T27" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="U26" s="2" t="s">
+      <c r="U27" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A27" s="15" t="s">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B28" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C27" s="17" t="s">
+      <c r="C28" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D27" s="39" t="s">
+      <c r="D28" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="E27" s="25" t="s">
+      <c r="E28" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="31"/>
-      <c r="I27" s="31"/>
-      <c r="J27" s="32"/>
-      <c r="K27" s="34"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="38"/>
-      <c r="N27" s="38"/>
-      <c r="O27" s="37"/>
-      <c r="P27" s="36"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="2"/>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A28" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B28" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D28" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="F28" s="26"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="32"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="38"/>
-      <c r="N28" s="38"/>
-      <c r="O28" s="37"/>
-      <c r="P28" s="36"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+      <c r="J28" s="27"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="32"/>
+      <c r="N28" s="32"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="30"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A29" s="15" t="s">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D29" s="39" t="s">
+      <c r="D29" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="E29" s="40" t="s">
+      <c r="E29" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+      <c r="J29" s="27"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="32"/>
+      <c r="N29" s="32"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+      <c r="U29" s="2"/>
+    </row>
+    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="26"/>
-      <c r="G29" s="30" t="s">
+      <c r="F30" s="22"/>
+      <c r="G30" s="25" t="s">
         <v>180</v>
       </c>
-      <c r="H29" s="31">
+      <c r="H30" s="26">
+        <v>21</v>
+      </c>
+      <c r="I30" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="J29" s="32" t="s">
+      <c r="J30" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="K29" s="34" t="s">
+      <c r="K30" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L29" s="35" t="s">
+      <c r="L30" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M29" s="38"/>
-      <c r="N29" s="38" t="s">
+      <c r="M30" s="32"/>
+      <c r="N30" s="32" t="s">
         <v>62</v>
       </c>
-      <c r="O29" s="37"/>
-      <c r="P29" s="36" t="s">
+      <c r="O30" s="31"/>
+      <c r="P30" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q29" s="1">
+      <c r="Q30" s="1">
         <v>6</v>
       </c>
-      <c r="R29" s="11" t="s">
+      <c r="R30" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="S29" s="11" t="s">
+      <c r="S30" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="T29" s="11" t="s">
+      <c r="T30" s="11" t="s">
         <v>188</v>
       </c>
-      <c r="U29" s="2" t="s">
+      <c r="U30" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A30" s="15" t="s">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A31" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B31" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C30" s="17" t="s">
+      <c r="C31" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D31" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="E30" s="25"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="38"/>
-      <c r="N30" s="38"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="36"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="2"/>
-    </row>
-    <row r="31" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="62" t="s">
+      <c r="E31" s="21"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="32"/>
+      <c r="N31" s="32"/>
+      <c r="O31" s="31"/>
+      <c r="P31" s="30"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+      <c r="U31" s="2"/>
+    </row>
+    <row r="32" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="63" t="s">
+      <c r="B32" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C31" s="64" t="s">
+      <c r="C32" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D31" s="77" t="s">
+      <c r="D32" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="65" t="s">
+      <c r="E32" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="F31" s="78"/>
-      <c r="G31" s="77" t="s">
+      <c r="F32" s="22"/>
+      <c r="G32" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="H32" s="26">
+        <v>22</v>
+      </c>
+      <c r="I32" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J32" s="27" t="s">
         <v>223</v>
       </c>
-      <c r="H31" s="79">
-        <v>21</v>
-      </c>
-      <c r="I31" s="79" t="s">
+      <c r="K32" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L32" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="M32" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="N32" s="32"/>
+      <c r="O32" s="31" t="s">
+        <v>183</v>
+      </c>
+      <c r="P32" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J31" s="80" t="s">
-        <v>224</v>
-      </c>
-      <c r="K31" s="65" t="s">
-        <v>69</v>
-      </c>
-      <c r="L31" s="81" t="s">
-        <v>230</v>
-      </c>
-      <c r="M31" s="66" t="s">
-        <v>34</v>
-      </c>
-      <c r="N31" s="66"/>
-      <c r="O31" s="82" t="s">
-        <v>183</v>
-      </c>
-      <c r="P31" s="67" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" s="68">
+      <c r="Q32" s="1">
         <v>6</v>
       </c>
-      <c r="R31" s="69" t="s">
+      <c r="R32" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="S31" s="69" t="s">
+      <c r="S32" s="11" t="s">
         <v>184</v>
       </c>
-      <c r="T31" s="69" t="s">
-        <v>214</v>
-      </c>
-      <c r="U31" s="70" t="s">
+      <c r="T32" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="U32" s="2" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A32" s="15" t="s">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B33" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C33" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D33" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="E32" s="40" t="s">
+      <c r="E33" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="F32" s="26" t="s">
+      <c r="F33" s="22" t="s">
         <v>120</v>
       </c>
-      <c r="G32" s="30"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="31"/>
-      <c r="J32" s="32"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="38"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="37"/>
-      <c r="P32" s="36"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="2"/>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A33" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B33" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="40" t="s">
-        <v>119</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="G33" s="30"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="31"/>
-      <c r="J33" s="32"/>
-      <c r="K33" s="34"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="38"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="37"/>
-      <c r="P33" s="36"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+      <c r="J33" s="27"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="32"/>
+      <c r="O33" s="31"/>
+      <c r="P33" s="30"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="105" t="s">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="106" t="s">
+      <c r="B34" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C34" s="107" t="s">
+      <c r="C34" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="108" t="s">
+      <c r="D34" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="E34" s="118" t="s">
+      <c r="E34" s="21" t="s">
         <v>119</v>
       </c>
-      <c r="F34" s="110" t="s">
+      <c r="F34" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G34" s="25"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+      <c r="J34" s="27"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="32"/>
+      <c r="O34" s="31"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
+      <c r="U34" s="2"/>
+    </row>
+    <row r="35" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="F35" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="G34" s="108" t="s">
+      <c r="G35" s="25" t="s">
         <v>196</v>
       </c>
-      <c r="H34" s="111">
-        <v>22</v>
-      </c>
-      <c r="I34" s="111" t="s">
+      <c r="H35" s="26">
+        <v>23</v>
+      </c>
+      <c r="I35" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="112" t="s">
+      <c r="J35" s="27" t="s">
         <v>197</v>
       </c>
-      <c r="K34" s="109" t="s">
+      <c r="K35" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L34" s="113" t="s">
+      <c r="L35" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M34" s="114"/>
-      <c r="N34" s="114" t="s">
+      <c r="M35" s="32"/>
+      <c r="N35" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="O34" s="115"/>
-      <c r="P34" s="100" t="s">
+      <c r="O35" s="31"/>
+      <c r="P35" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q34" s="116">
+      <c r="Q35" s="1">
         <v>6</v>
       </c>
-      <c r="R34" s="117" t="s">
+      <c r="R35" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="S34" s="117" t="s">
+      <c r="S35" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="T34" s="117" t="s">
+      <c r="T35" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="U34" s="2" t="s">
+      <c r="U35" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="15" t="s">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B36" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="17" t="s">
+      <c r="C36" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D36" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E36" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="F35" s="26"/>
-      <c r="G35" s="30"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="31"/>
-      <c r="J35" s="32"/>
-      <c r="K35" s="34"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="36"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="2"/>
-    </row>
-    <row r="36" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="83" t="s">
+      <c r="F36" s="22"/>
+      <c r="G36" s="25"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="26"/>
+      <c r="J36" s="27"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="31"/>
+      <c r="P36" s="30"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+      <c r="U36" s="2"/>
+    </row>
+    <row r="37" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="84" t="s">
+      <c r="B37" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="85" t="s">
+      <c r="C37" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D36" s="86" t="s">
+      <c r="D37" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="E36" s="87" t="s">
+      <c r="E37" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="F36" s="88"/>
-      <c r="G36" s="86" t="s">
+      <c r="F37" s="22"/>
+      <c r="G37" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="H36" s="89">
-        <v>23</v>
-      </c>
-      <c r="I36" s="89" t="s">
+      <c r="H37" s="26">
+        <v>24</v>
+      </c>
+      <c r="I37" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="90" t="s">
+      <c r="J37" s="27" t="s">
         <v>191</v>
       </c>
-      <c r="K36" s="87" t="s">
+      <c r="K37" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L36" s="91" t="s">
+      <c r="L37" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M36" s="92"/>
-      <c r="N36" s="92" t="s">
+      <c r="M37" s="32"/>
+      <c r="N37" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="O36" s="93"/>
-      <c r="P36" s="100" t="s">
+      <c r="O37" s="31"/>
+      <c r="P37" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="Q36" s="95">
+      <c r="Q37" s="1">
         <v>6</v>
       </c>
-      <c r="R36" s="96" t="s">
+      <c r="R37" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="S36" s="96" t="s">
+      <c r="S37" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="T36" s="96" t="s">
+      <c r="T37" s="11" t="s">
         <v>192</v>
       </c>
-      <c r="U36" s="97" t="s">
+      <c r="U37" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="37" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="83" t="s">
+    <row r="38" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B37" s="84" t="s">
+      <c r="B38" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="85" t="s">
+      <c r="C38" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D37" s="86" t="s">
+      <c r="D38" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="E37" s="87" t="s">
+      <c r="E38" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="F37" s="88"/>
-      <c r="G37" s="86" t="s">
+      <c r="F38" s="22"/>
+      <c r="G38" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="H37" s="89">
-        <v>24</v>
-      </c>
-      <c r="I37" s="89" t="s">
+      <c r="H38" s="26">
+        <v>25</v>
+      </c>
+      <c r="I38" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="90" t="s">
+      <c r="J38" s="27" t="s">
         <v>199</v>
       </c>
-      <c r="K37" s="87" t="s">
+      <c r="K38" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L37" s="91" t="s">
+      <c r="L38" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M37" s="92"/>
-      <c r="N37" s="92" t="s">
+      <c r="M38" s="32"/>
+      <c r="N38" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="O37" s="93"/>
-      <c r="P37" s="100" t="s">
+      <c r="O38" s="31"/>
+      <c r="P38" s="30" t="s">
         <v>20</v>
-      </c>
-      <c r="Q37" s="95">
-        <v>6</v>
-      </c>
-      <c r="R37" s="96" t="s">
-        <v>138</v>
-      </c>
-      <c r="S37" s="96" t="s">
-        <v>139</v>
-      </c>
-      <c r="T37" s="96" t="s">
-        <v>200</v>
-      </c>
-      <c r="U37" s="97" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="E38" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="F38" s="26"/>
-      <c r="G38" s="30" t="s">
-        <v>117</v>
-      </c>
-      <c r="H38" s="31">
-        <v>25</v>
-      </c>
-      <c r="I38" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="J38" s="32" t="s">
-        <v>187</v>
-      </c>
-      <c r="K38" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="L38" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M38" s="38"/>
-      <c r="N38" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="O38" s="37"/>
-      <c r="P38" s="36" t="s">
-        <v>19</v>
       </c>
       <c r="Q38" s="1">
         <v>6</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="S38" s="11" t="s">
-        <v>215</v>
+        <v>139</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C39" s="17" t="s">
+      <c r="C39" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D39" s="22" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" s="25"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="30" t="s">
-        <v>225</v>
-      </c>
-      <c r="H39" s="31">
+      <c r="D39" s="19" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="F39" s="22"/>
+      <c r="G39" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="H39" s="26">
         <v>26</v>
       </c>
-      <c r="I39" s="31" t="s">
+      <c r="I39" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="32" t="s">
-        <v>227</v>
-      </c>
-      <c r="K39" s="34" t="s">
+      <c r="J39" s="27" t="s">
+        <v>187</v>
+      </c>
+      <c r="K39" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L39" s="35" t="s">
+      <c r="L39" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M39" s="38"/>
-      <c r="N39" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="O39" s="37"/>
-      <c r="P39" s="36" t="s">
+      <c r="M39" s="32"/>
+      <c r="N39" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="O39" s="31"/>
+      <c r="P39" s="30" t="s">
         <v>19</v>
       </c>
       <c r="Q39" s="1">
         <v>6</v>
       </c>
       <c r="R39" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="S39" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="T39" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A40" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="21"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="H40" s="26">
+        <v>27</v>
+      </c>
+      <c r="I40" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="K40" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L40" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M40" s="32"/>
+      <c r="N40" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="O40" s="31"/>
+      <c r="P40" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>6</v>
+      </c>
+      <c r="R40" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="S39" s="11" t="s">
+      <c r="S40" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="T39" s="11" t="s">
+      <c r="T40" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="U39" s="2" t="s">
+      <c r="U40" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="62" t="s">
+    <row r="41" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A41" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B40" s="63" t="s">
+      <c r="B41" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C40" s="64" t="s">
+      <c r="C41" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D40" s="77" t="s">
+      <c r="D41" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="65"/>
-      <c r="F40" s="78"/>
-      <c r="G40" s="77" t="s">
-        <v>226</v>
-      </c>
-      <c r="H40" s="79">
-        <v>27</v>
-      </c>
-      <c r="I40" s="79" t="s">
+      <c r="E41" s="21"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="25" t="s">
+        <v>225</v>
+      </c>
+      <c r="H41" s="26">
+        <v>28</v>
+      </c>
+      <c r="I41" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="80" t="s">
+      <c r="J41" s="27" t="s">
+        <v>227</v>
+      </c>
+      <c r="K41" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L41" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M41" s="32"/>
+      <c r="N41" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="O41" s="31"/>
+      <c r="P41" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>6</v>
+      </c>
+      <c r="R41" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S41" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="T41" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="K40" s="65" t="s">
+      <c r="U41" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="E42" s="21"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="H42" s="26">
+        <v>29</v>
+      </c>
+      <c r="I42" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="K42" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="L40" s="81" t="s">
+      <c r="L42" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="M42" s="32"/>
+      <c r="N42" s="32"/>
+      <c r="O42" s="31"/>
+      <c r="P42" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+      <c r="U42" s="2"/>
+    </row>
+    <row r="43" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A43" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="E43" s="21"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="25" t="s">
+        <v>203</v>
+      </c>
+      <c r="H43" s="26">
+        <v>30</v>
+      </c>
+      <c r="I43" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="K43" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L43" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="M40" s="66"/>
-      <c r="N40" s="66" t="s">
-        <v>64</v>
-      </c>
-      <c r="O40" s="82"/>
-      <c r="P40" s="67" t="s">
+      <c r="M43" s="32"/>
+      <c r="N43" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="O43" s="31"/>
+      <c r="P43" s="30" t="s">
         <v>19</v>
-      </c>
-      <c r="Q40" s="68">
-        <v>6</v>
-      </c>
-      <c r="R40" s="69" t="s">
-        <v>138</v>
-      </c>
-      <c r="S40" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="T40" s="69" t="s">
-        <v>229</v>
-      </c>
-      <c r="U40" s="70" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D41" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="E41" s="25"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="30" t="s">
-        <v>202</v>
-      </c>
-      <c r="H41" s="31">
-        <v>28</v>
-      </c>
-      <c r="I41" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="J41" s="32" t="s">
-        <v>204</v>
-      </c>
-      <c r="K41" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="L41" s="35" t="s">
-        <v>33</v>
-      </c>
-      <c r="M41" s="38"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="11"/>
-      <c r="S41" s="11"/>
-      <c r="T41" s="11"/>
-      <c r="U41" s="2"/>
-    </row>
-    <row r="42" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A42" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B42" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C42" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D42" s="22" t="s">
-        <v>201</v>
-      </c>
-      <c r="E42" s="25"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="30" t="s">
-        <v>203</v>
-      </c>
-      <c r="H42" s="31">
-        <v>29</v>
-      </c>
-      <c r="I42" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="J42" s="29" t="s">
-        <v>205</v>
-      </c>
-      <c r="K42" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="L42" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M42" s="38"/>
-      <c r="N42" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="O42" s="37"/>
-      <c r="P42" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q42" s="1">
-        <v>6</v>
-      </c>
-      <c r="R42" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="S42" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="T42" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="U42" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A43" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C43" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D43" s="22"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="26"/>
-      <c r="G43" s="30" t="s">
-        <v>212</v>
-      </c>
-      <c r="H43" s="31">
-        <v>30</v>
-      </c>
-      <c r="I43" s="31" t="s">
-        <v>20</v>
-      </c>
-      <c r="J43" s="32" t="s">
-        <v>213</v>
-      </c>
-      <c r="K43" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="L43" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="M43" s="38"/>
-      <c r="N43" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="O43" s="37"/>
-      <c r="P43" s="36" t="s">
-        <v>20</v>
       </c>
       <c r="Q43" s="1">
         <v>6</v>
@@ -3842,52 +3709,84 @@
         <v>139</v>
       </c>
       <c r="T43" s="11" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="U43" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="32"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="38"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="36"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="11"/>
-      <c r="S44" s="11"/>
-      <c r="T44" s="11"/>
-      <c r="U44" s="2"/>
+    <row r="44" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="A44" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="19"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="H44" s="26">
+        <v>31</v>
+      </c>
+      <c r="I44" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="K44" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L44" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M44" s="32"/>
+      <c r="N44" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="O44" s="31"/>
+      <c r="P44" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>6</v>
+      </c>
+      <c r="R44" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S44" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="T44" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A45" s="19"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="25"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="32"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="38"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="36"/>
+      <c r="A45" s="16"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="29"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="32"/>
+      <c r="O45" s="31"/>
+      <c r="P45" s="30"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
@@ -3895,22 +3794,22 @@
       <c r="U45" s="2"/>
     </row>
     <row r="46" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A46" s="19"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="22"/>
-      <c r="E46" s="25"/>
-      <c r="F46" s="26"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="31"/>
-      <c r="I46" s="31"/>
-      <c r="J46" s="32"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="36"/>
+      <c r="A46" s="16"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="28"/>
+      <c r="L46" s="29"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="32"/>
+      <c r="O46" s="31"/>
+      <c r="P46" s="30"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
@@ -3918,68 +3817,68 @@
       <c r="U46" s="2"/>
     </row>
     <row r="47" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A47" s="19"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="22"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="30"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="32"/>
-      <c r="K47" s="34"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="38"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="36"/>
+      <c r="A47" s="16"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="27"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="29"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="32"/>
+      <c r="O47" s="31"/>
+      <c r="P47" s="30"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
       <c r="T47" s="11"/>
       <c r="U47" s="2"/>
     </row>
-    <row r="48" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="19"/>
-      <c r="B48" s="20"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="22"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="30"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="32"/>
-      <c r="K48" s="34"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="38"/>
-      <c r="N48" s="38"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="36"/>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="25"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="27"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="29"/>
+      <c r="M48" s="32"/>
+      <c r="N48" s="32"/>
+      <c r="O48" s="31"/>
+      <c r="P48" s="30"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="11"/>
       <c r="S48" s="11"/>
       <c r="T48" s="11"/>
       <c r="U48" s="2"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A49" s="19"/>
-      <c r="B49" s="20"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="30"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="32"/>
-      <c r="K49" s="34"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="38"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="36"/>
+    <row r="49" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="16"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="25"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="29"/>
+      <c r="M49" s="32"/>
+      <c r="N49" s="32"/>
+      <c r="O49" s="31"/>
+      <c r="P49" s="30"/>
       <c r="Q49" s="1"/>
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
@@ -3987,22 +3886,22 @@
       <c r="U49" s="2"/>
     </row>
     <row r="50" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A50" s="19"/>
-      <c r="B50" s="20"/>
-      <c r="C50" s="21"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="30"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="32"/>
-      <c r="K50" s="34"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="38"/>
-      <c r="N50" s="38"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="36"/>
+      <c r="A50" s="16"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="25"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="27"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="29"/>
+      <c r="M50" s="32"/>
+      <c r="N50" s="32"/>
+      <c r="O50" s="31"/>
+      <c r="P50" s="30"/>
       <c r="Q50" s="1"/>
       <c r="R50" s="11"/>
       <c r="S50" s="11"/>
@@ -4010,22 +3909,22 @@
       <c r="U50" s="2"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A51" s="19"/>
-      <c r="B51" s="20"/>
-      <c r="C51" s="21"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="26"/>
-      <c r="G51" s="30"/>
-      <c r="H51" s="31"/>
-      <c r="I51" s="31"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="34"/>
-      <c r="L51" s="35"/>
-      <c r="M51" s="38"/>
-      <c r="N51" s="38"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="36"/>
+      <c r="A51" s="16"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="19"/>
+      <c r="E51" s="21"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="25"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="27"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="29"/>
+      <c r="M51" s="32"/>
+      <c r="N51" s="32"/>
+      <c r="O51" s="31"/>
+      <c r="P51" s="30"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
@@ -4033,22 +3932,22 @@
       <c r="U51" s="2"/>
     </row>
     <row r="52" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A52" s="19"/>
-      <c r="B52" s="20"/>
-      <c r="C52" s="21"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="28"/>
-      <c r="G52" s="30"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="32"/>
-      <c r="K52" s="34"/>
-      <c r="L52" s="35"/>
-      <c r="M52" s="38"/>
-      <c r="N52" s="38"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="36"/>
+      <c r="A52" s="16"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="19"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="25"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="27"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="29"/>
+      <c r="M52" s="32"/>
+      <c r="N52" s="32"/>
+      <c r="O52" s="31"/>
+      <c r="P52" s="30"/>
       <c r="Q52" s="1"/>
       <c r="R52" s="11"/>
       <c r="S52" s="11"/>
@@ -4056,22 +3955,22 @@
       <c r="U52" s="2"/>
     </row>
     <row r="53" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A53" s="19"/>
-      <c r="B53" s="20"/>
-      <c r="C53" s="21"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="27"/>
-      <c r="F53" s="28"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="31"/>
-      <c r="I53" s="31"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="34"/>
-      <c r="L53" s="35"/>
-      <c r="M53" s="38"/>
-      <c r="N53" s="38"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="36"/>
+      <c r="A53" s="16"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="25"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="28"/>
+      <c r="L53" s="29"/>
+      <c r="M53" s="32"/>
+      <c r="N53" s="32"/>
+      <c r="O53" s="31"/>
+      <c r="P53" s="30"/>
       <c r="Q53" s="1"/>
       <c r="R53" s="11"/>
       <c r="S53" s="11"/>
@@ -4079,22 +3978,22 @@
       <c r="U53" s="2"/>
     </row>
     <row r="54" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A54" s="19"/>
-      <c r="B54" s="20"/>
-      <c r="C54" s="21"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="27"/>
-      <c r="F54" s="28"/>
-      <c r="G54" s="30"/>
-      <c r="H54" s="31"/>
-      <c r="I54" s="31"/>
-      <c r="J54" s="32"/>
-      <c r="K54" s="34"/>
-      <c r="L54" s="35"/>
-      <c r="M54" s="38"/>
-      <c r="N54" s="38"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="36"/>
+      <c r="A54" s="16"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="21"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="25"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="27"/>
+      <c r="K54" s="28"/>
+      <c r="L54" s="29"/>
+      <c r="M54" s="32"/>
+      <c r="N54" s="32"/>
+      <c r="O54" s="31"/>
+      <c r="P54" s="30"/>
       <c r="Q54" s="1"/>
       <c r="R54" s="11"/>
       <c r="S54" s="11"/>
@@ -4102,22 +4001,22 @@
       <c r="U54" s="2"/>
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="19"/>
-      <c r="B55" s="20"/>
-      <c r="C55" s="21"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="31"/>
-      <c r="I55" s="31"/>
-      <c r="J55" s="32"/>
-      <c r="K55" s="34"/>
-      <c r="L55" s="35"/>
-      <c r="M55" s="38"/>
-      <c r="N55" s="38"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="36"/>
+      <c r="A55" s="16"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="25"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="27"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="29"/>
+      <c r="M55" s="32"/>
+      <c r="N55" s="32"/>
+      <c r="O55" s="31"/>
+      <c r="P55" s="30"/>
       <c r="Q55" s="1"/>
       <c r="R55" s="11"/>
       <c r="S55" s="11"/>
@@ -4125,22 +4024,22 @@
       <c r="U55" s="2"/>
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="19"/>
-      <c r="B56" s="20"/>
-      <c r="C56" s="21"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="27"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="31"/>
-      <c r="I56" s="31"/>
-      <c r="J56" s="32"/>
-      <c r="K56" s="34"/>
-      <c r="L56" s="35"/>
-      <c r="M56" s="38"/>
-      <c r="N56" s="38"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="36"/>
+      <c r="A56" s="16"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="22"/>
+      <c r="G56" s="25"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="27"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="29"/>
+      <c r="M56" s="32"/>
+      <c r="N56" s="32"/>
+      <c r="O56" s="31"/>
+      <c r="P56" s="30"/>
       <c r="Q56" s="1"/>
       <c r="R56" s="11"/>
       <c r="S56" s="11"/>
@@ -4148,22 +4047,22 @@
       <c r="U56" s="2"/>
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="19"/>
-      <c r="B57" s="20"/>
-      <c r="C57" s="21"/>
-      <c r="D57" s="23"/>
-      <c r="E57" s="27"/>
-      <c r="F57" s="28"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="31"/>
-      <c r="I57" s="31"/>
-      <c r="J57" s="32"/>
-      <c r="K57" s="34"/>
-      <c r="L57" s="35"/>
-      <c r="M57" s="38"/>
-      <c r="N57" s="38"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="36"/>
+      <c r="A57" s="16"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="18"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="21"/>
+      <c r="F57" s="22"/>
+      <c r="G57" s="25"/>
+      <c r="H57" s="26"/>
+      <c r="I57" s="26"/>
+      <c r="J57" s="27"/>
+      <c r="K57" s="28"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="32"/>
+      <c r="N57" s="32"/>
+      <c r="O57" s="31"/>
+      <c r="P57" s="30"/>
       <c r="Q57" s="1"/>
       <c r="R57" s="11"/>
       <c r="S57" s="11"/>
@@ -4171,22 +4070,22 @@
       <c r="U57" s="2"/>
     </row>
     <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="19"/>
-      <c r="B58" s="20"/>
-      <c r="C58" s="21"/>
-      <c r="D58" s="23"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="28"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="32"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="35"/>
-      <c r="M58" s="38"/>
-      <c r="N58" s="38"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="36"/>
+      <c r="A58" s="16"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="18"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="21"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="27"/>
+      <c r="K58" s="28"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="32"/>
+      <c r="N58" s="32"/>
+      <c r="O58" s="31"/>
+      <c r="P58" s="30"/>
       <c r="Q58" s="1"/>
       <c r="R58" s="11"/>
       <c r="S58" s="11"/>
@@ -4194,22 +4093,22 @@
       <c r="U58" s="2"/>
     </row>
     <row r="59" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A59" s="19"/>
-      <c r="B59" s="20"/>
-      <c r="C59" s="21"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="28"/>
-      <c r="G59" s="30"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="32"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="35"/>
-      <c r="M59" s="38"/>
-      <c r="N59" s="38"/>
-      <c r="O59" s="37"/>
-      <c r="P59" s="36"/>
+      <c r="A59" s="16"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="18"/>
+      <c r="D59" s="19"/>
+      <c r="E59" s="21"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="27"/>
+      <c r="K59" s="28"/>
+      <c r="L59" s="29"/>
+      <c r="M59" s="32"/>
+      <c r="N59" s="32"/>
+      <c r="O59" s="31"/>
+      <c r="P59" s="30"/>
       <c r="Q59" s="1"/>
       <c r="R59" s="11"/>
       <c r="S59" s="11"/>
@@ -4217,22 +4116,22 @@
       <c r="U59" s="2"/>
     </row>
     <row r="60" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A60" s="19"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="21"/>
-      <c r="D60" s="23"/>
-      <c r="E60" s="27"/>
-      <c r="F60" s="28"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="35"/>
-      <c r="M60" s="38"/>
-      <c r="N60" s="38"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="36"/>
+      <c r="A60" s="16"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="18"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="26"/>
+      <c r="I60" s="26"/>
+      <c r="J60" s="27"/>
+      <c r="K60" s="28"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="32"/>
+      <c r="N60" s="32"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="30"/>
       <c r="Q60" s="1"/>
       <c r="R60" s="11"/>
       <c r="S60" s="11"/>
@@ -4240,22 +4139,22 @@
       <c r="U60" s="2"/>
     </row>
     <row r="61" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A61" s="19"/>
-      <c r="B61" s="20"/>
-      <c r="C61" s="21"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="27"/>
-      <c r="F61" s="28"/>
-      <c r="G61" s="30"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="32"/>
-      <c r="K61" s="34"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="38"/>
-      <c r="N61" s="38"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="36"/>
+      <c r="A61" s="16"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="18"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="27"/>
+      <c r="K61" s="28"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="32"/>
+      <c r="N61" s="32"/>
+      <c r="O61" s="31"/>
+      <c r="P61" s="30"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="11"/>
       <c r="S61" s="11"/>
@@ -4263,22 +4162,22 @@
       <c r="U61" s="2"/>
     </row>
     <row r="62" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A62" s="19"/>
-      <c r="B62" s="20"/>
-      <c r="C62" s="21"/>
-      <c r="D62" s="23"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="30"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="32"/>
-      <c r="K62" s="34"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="38"/>
-      <c r="N62" s="38"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="36"/>
+      <c r="A62" s="16"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="18"/>
+      <c r="D62" s="20"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="26"/>
+      <c r="I62" s="26"/>
+      <c r="J62" s="27"/>
+      <c r="K62" s="28"/>
+      <c r="L62" s="29"/>
+      <c r="M62" s="32"/>
+      <c r="N62" s="32"/>
+      <c r="O62" s="31"/>
+      <c r="P62" s="30"/>
       <c r="Q62" s="1"/>
       <c r="R62" s="11"/>
       <c r="S62" s="11"/>
@@ -4286,22 +4185,22 @@
       <c r="U62" s="2"/>
     </row>
     <row r="63" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A63" s="19"/>
-      <c r="B63" s="20"/>
-      <c r="C63" s="21"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="27"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="30"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="32"/>
-      <c r="K63" s="34"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="38"/>
-      <c r="N63" s="38"/>
-      <c r="O63" s="37"/>
-      <c r="P63" s="36"/>
+      <c r="A63" s="16"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="18"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="26"/>
+      <c r="I63" s="26"/>
+      <c r="J63" s="27"/>
+      <c r="K63" s="28"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="32"/>
+      <c r="N63" s="32"/>
+      <c r="O63" s="31"/>
+      <c r="P63" s="30"/>
       <c r="Q63" s="1"/>
       <c r="R63" s="11"/>
       <c r="S63" s="11"/>
@@ -4309,22 +4208,22 @@
       <c r="U63" s="2"/>
     </row>
     <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A64" s="19"/>
-      <c r="B64" s="20"/>
-      <c r="C64" s="21"/>
-      <c r="D64" s="23"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="30"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="32"/>
-      <c r="K64" s="34"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="38"/>
-      <c r="N64" s="38"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="36"/>
+      <c r="A64" s="16"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="18"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="27"/>
+      <c r="K64" s="28"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="32"/>
+      <c r="N64" s="32"/>
+      <c r="O64" s="31"/>
+      <c r="P64" s="30"/>
       <c r="Q64" s="1"/>
       <c r="R64" s="11"/>
       <c r="S64" s="11"/>
@@ -4332,22 +4231,22 @@
       <c r="U64" s="2"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="21"/>
-      <c r="D65" s="23"/>
-      <c r="E65" s="27"/>
-      <c r="F65" s="28"/>
-      <c r="G65" s="30"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="32"/>
-      <c r="K65" s="34"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="38"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="36"/>
+      <c r="A65" s="16"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="18"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="26"/>
+      <c r="I65" s="26"/>
+      <c r="J65" s="27"/>
+      <c r="K65" s="28"/>
+      <c r="L65" s="29"/>
+      <c r="M65" s="32"/>
+      <c r="N65" s="32"/>
+      <c r="O65" s="31"/>
+      <c r="P65" s="30"/>
       <c r="Q65" s="1"/>
       <c r="R65" s="11"/>
       <c r="S65" s="11"/>
@@ -4355,22 +4254,22 @@
       <c r="U65" s="2"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A66" s="19"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="21"/>
-      <c r="D66" s="23"/>
-      <c r="E66" s="27"/>
-      <c r="F66" s="28"/>
-      <c r="G66" s="30"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="32"/>
-      <c r="K66" s="34"/>
-      <c r="L66" s="35"/>
-      <c r="M66" s="38"/>
-      <c r="N66" s="38"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="36"/>
+      <c r="A66" s="16"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="18"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="26"/>
+      <c r="I66" s="26"/>
+      <c r="J66" s="27"/>
+      <c r="K66" s="28"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="32"/>
+      <c r="N66" s="32"/>
+      <c r="O66" s="31"/>
+      <c r="P66" s="30"/>
       <c r="Q66" s="1"/>
       <c r="R66" s="11"/>
       <c r="S66" s="11"/>
@@ -4378,22 +4277,22 @@
       <c r="U66" s="2"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A67" s="19"/>
-      <c r="B67" s="20"/>
-      <c r="C67" s="21"/>
-      <c r="D67" s="23"/>
-      <c r="E67" s="27"/>
-      <c r="F67" s="28"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="32"/>
-      <c r="K67" s="34"/>
-      <c r="L67" s="35"/>
-      <c r="M67" s="38"/>
-      <c r="N67" s="38"/>
-      <c r="O67" s="37"/>
-      <c r="P67" s="36"/>
+      <c r="A67" s="16"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="18"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="27"/>
+      <c r="K67" s="28"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="32"/>
+      <c r="N67" s="32"/>
+      <c r="O67" s="31"/>
+      <c r="P67" s="30"/>
       <c r="Q67" s="1"/>
       <c r="R67" s="11"/>
       <c r="S67" s="11"/>
@@ -4401,22 +4300,22 @@
       <c r="U67" s="2"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A68" s="19"/>
-      <c r="B68" s="20"/>
-      <c r="C68" s="21"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="27"/>
-      <c r="F68" s="28"/>
-      <c r="G68" s="30"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="32"/>
-      <c r="K68" s="34"/>
-      <c r="L68" s="35"/>
-      <c r="M68" s="38"/>
-      <c r="N68" s="38"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="36"/>
+      <c r="A68" s="16"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="18"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="27"/>
+      <c r="K68" s="28"/>
+      <c r="L68" s="29"/>
+      <c r="M68" s="32"/>
+      <c r="N68" s="32"/>
+      <c r="O68" s="31"/>
+      <c r="P68" s="30"/>
       <c r="Q68" s="1"/>
       <c r="R68" s="11"/>
       <c r="S68" s="11"/>
@@ -4424,22 +4323,22 @@
       <c r="U68" s="2"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A69" s="19"/>
-      <c r="B69" s="20"/>
-      <c r="C69" s="21"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="27"/>
-      <c r="F69" s="28"/>
-      <c r="G69" s="30"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="32"/>
-      <c r="K69" s="34"/>
-      <c r="L69" s="35"/>
-      <c r="M69" s="38"/>
-      <c r="N69" s="38"/>
-      <c r="O69" s="37"/>
-      <c r="P69" s="36"/>
+      <c r="A69" s="16"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="18"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="26"/>
+      <c r="I69" s="26"/>
+      <c r="J69" s="27"/>
+      <c r="K69" s="28"/>
+      <c r="L69" s="29"/>
+      <c r="M69" s="32"/>
+      <c r="N69" s="32"/>
+      <c r="O69" s="31"/>
+      <c r="P69" s="30"/>
       <c r="Q69" s="1"/>
       <c r="R69" s="11"/>
       <c r="S69" s="11"/>
@@ -4447,22 +4346,22 @@
       <c r="U69" s="2"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A70" s="19"/>
-      <c r="B70" s="20"/>
-      <c r="C70" s="21"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="27"/>
-      <c r="F70" s="28"/>
-      <c r="G70" s="30"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="32"/>
-      <c r="K70" s="34"/>
-      <c r="L70" s="35"/>
-      <c r="M70" s="38"/>
-      <c r="N70" s="38"/>
-      <c r="O70" s="37"/>
-      <c r="P70" s="36"/>
+      <c r="A70" s="16"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="18"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="26"/>
+      <c r="I70" s="26"/>
+      <c r="J70" s="27"/>
+      <c r="K70" s="28"/>
+      <c r="L70" s="29"/>
+      <c r="M70" s="32"/>
+      <c r="N70" s="32"/>
+      <c r="O70" s="31"/>
+      <c r="P70" s="30"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="11"/>
       <c r="S70" s="11"/>
@@ -4470,22 +4369,22 @@
       <c r="U70" s="2"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A71" s="19"/>
-      <c r="B71" s="20"/>
-      <c r="C71" s="21"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="27"/>
-      <c r="F71" s="28"/>
-      <c r="G71" s="30"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="32"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="35"/>
-      <c r="M71" s="38"/>
-      <c r="N71" s="38"/>
-      <c r="O71" s="37"/>
-      <c r="P71" s="36"/>
+      <c r="A71" s="16"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="18"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="26"/>
+      <c r="I71" s="26"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="28"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="32"/>
+      <c r="N71" s="32"/>
+      <c r="O71" s="31"/>
+      <c r="P71" s="30"/>
       <c r="Q71" s="1"/>
       <c r="R71" s="11"/>
       <c r="S71" s="11"/>
@@ -4493,22 +4392,22 @@
       <c r="U71" s="2"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A72" s="19"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="21"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="27"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="30"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="32"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="35"/>
-      <c r="M72" s="38"/>
-      <c r="N72" s="38"/>
-      <c r="O72" s="37"/>
-      <c r="P72" s="36"/>
+      <c r="A72" s="16"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="18"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="27"/>
+      <c r="K72" s="28"/>
+      <c r="L72" s="29"/>
+      <c r="M72" s="32"/>
+      <c r="N72" s="32"/>
+      <c r="O72" s="31"/>
+      <c r="P72" s="30"/>
       <c r="Q72" s="1"/>
       <c r="R72" s="11"/>
       <c r="S72" s="11"/>
@@ -4516,22 +4415,22 @@
       <c r="U72" s="2"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A73" s="19"/>
-      <c r="B73" s="20"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="27"/>
-      <c r="F73" s="28"/>
-      <c r="G73" s="30"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="32"/>
-      <c r="K73" s="34"/>
-      <c r="L73" s="35"/>
-      <c r="M73" s="38"/>
-      <c r="N73" s="38"/>
-      <c r="O73" s="37"/>
-      <c r="P73" s="36"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="18"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="26"/>
+      <c r="I73" s="26"/>
+      <c r="J73" s="27"/>
+      <c r="K73" s="28"/>
+      <c r="L73" s="29"/>
+      <c r="M73" s="32"/>
+      <c r="N73" s="32"/>
+      <c r="O73" s="31"/>
+      <c r="P73" s="30"/>
       <c r="Q73" s="1"/>
       <c r="R73" s="11"/>
       <c r="S73" s="11"/>
@@ -4539,22 +4438,22 @@
       <c r="U73" s="2"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A74" s="19"/>
-      <c r="B74" s="20"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="28"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="32"/>
-      <c r="K74" s="34"/>
-      <c r="L74" s="35"/>
-      <c r="M74" s="38"/>
-      <c r="N74" s="38"/>
-      <c r="O74" s="37"/>
-      <c r="P74" s="36"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="26"/>
+      <c r="I74" s="26"/>
+      <c r="J74" s="27"/>
+      <c r="K74" s="28"/>
+      <c r="L74" s="29"/>
+      <c r="M74" s="32"/>
+      <c r="N74" s="32"/>
+      <c r="O74" s="31"/>
+      <c r="P74" s="30"/>
       <c r="Q74" s="1"/>
       <c r="R74" s="11"/>
       <c r="S74" s="11"/>
@@ -4562,22 +4461,22 @@
       <c r="U74" s="2"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A75" s="19"/>
-      <c r="B75" s="20"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="28"/>
-      <c r="G75" s="30"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="32"/>
-      <c r="K75" s="34"/>
-      <c r="L75" s="35"/>
-      <c r="M75" s="38"/>
-      <c r="N75" s="38"/>
-      <c r="O75" s="37"/>
-      <c r="P75" s="36"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="18"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="26"/>
+      <c r="I75" s="26"/>
+      <c r="J75" s="27"/>
+      <c r="K75" s="28"/>
+      <c r="L75" s="29"/>
+      <c r="M75" s="32"/>
+      <c r="N75" s="32"/>
+      <c r="O75" s="31"/>
+      <c r="P75" s="30"/>
       <c r="Q75" s="1"/>
       <c r="R75" s="11"/>
       <c r="S75" s="11"/>
@@ -4585,22 +4484,22 @@
       <c r="U75" s="2"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A76" s="19"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="21"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="27"/>
-      <c r="F76" s="28"/>
-      <c r="G76" s="30"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="32"/>
-      <c r="K76" s="34"/>
-      <c r="L76" s="35"/>
-      <c r="M76" s="38"/>
-      <c r="N76" s="38"/>
-      <c r="O76" s="37"/>
-      <c r="P76" s="36"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="18"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="26"/>
+      <c r="I76" s="26"/>
+      <c r="J76" s="27"/>
+      <c r="K76" s="28"/>
+      <c r="L76" s="29"/>
+      <c r="M76" s="32"/>
+      <c r="N76" s="32"/>
+      <c r="O76" s="31"/>
+      <c r="P76" s="30"/>
       <c r="Q76" s="1"/>
       <c r="R76" s="11"/>
       <c r="S76" s="11"/>
@@ -4608,22 +4507,22 @@
       <c r="U76" s="2"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A77" s="19"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="21"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="27"/>
-      <c r="F77" s="28"/>
-      <c r="G77" s="30"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="32"/>
-      <c r="K77" s="34"/>
-      <c r="L77" s="35"/>
-      <c r="M77" s="38"/>
-      <c r="N77" s="38"/>
-      <c r="O77" s="37"/>
-      <c r="P77" s="36"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="18"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="26"/>
+      <c r="I77" s="26"/>
+      <c r="J77" s="27"/>
+      <c r="K77" s="28"/>
+      <c r="L77" s="29"/>
+      <c r="M77" s="32"/>
+      <c r="N77" s="32"/>
+      <c r="O77" s="31"/>
+      <c r="P77" s="30"/>
       <c r="Q77" s="1"/>
       <c r="R77" s="11"/>
       <c r="S77" s="11"/>
@@ -4631,22 +4530,22 @@
       <c r="U77" s="2"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A78" s="19"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="21"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="27"/>
-      <c r="F78" s="28"/>
-      <c r="G78" s="30"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="32"/>
-      <c r="K78" s="34"/>
-      <c r="L78" s="35"/>
-      <c r="M78" s="38"/>
-      <c r="N78" s="38"/>
-      <c r="O78" s="37"/>
-      <c r="P78" s="36"/>
+      <c r="A78" s="16"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="18"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="26"/>
+      <c r="I78" s="26"/>
+      <c r="J78" s="27"/>
+      <c r="K78" s="28"/>
+      <c r="L78" s="29"/>
+      <c r="M78" s="32"/>
+      <c r="N78" s="32"/>
+      <c r="O78" s="31"/>
+      <c r="P78" s="30"/>
       <c r="Q78" s="1"/>
       <c r="R78" s="11"/>
       <c r="S78" s="11"/>
@@ -4654,22 +4553,22 @@
       <c r="U78" s="2"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A79" s="19"/>
-      <c r="B79" s="20"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="27"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="30"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="32"/>
-      <c r="K79" s="34"/>
-      <c r="L79" s="35"/>
-      <c r="M79" s="38"/>
-      <c r="N79" s="38"/>
-      <c r="O79" s="37"/>
-      <c r="P79" s="36"/>
+      <c r="A79" s="16"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="18"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="26"/>
+      <c r="I79" s="26"/>
+      <c r="J79" s="27"/>
+      <c r="K79" s="28"/>
+      <c r="L79" s="29"/>
+      <c r="M79" s="32"/>
+      <c r="N79" s="32"/>
+      <c r="O79" s="31"/>
+      <c r="P79" s="30"/>
       <c r="Q79" s="1"/>
       <c r="R79" s="11"/>
       <c r="S79" s="11"/>
@@ -4677,22 +4576,22 @@
       <c r="U79" s="2"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A80" s="19"/>
-      <c r="B80" s="20"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="27"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="30"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="32"/>
-      <c r="K80" s="34"/>
-      <c r="L80" s="35"/>
-      <c r="M80" s="38"/>
-      <c r="N80" s="38"/>
-      <c r="O80" s="37"/>
-      <c r="P80" s="36"/>
+      <c r="A80" s="16"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="26"/>
+      <c r="I80" s="26"/>
+      <c r="J80" s="27"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="29"/>
+      <c r="M80" s="32"/>
+      <c r="N80" s="32"/>
+      <c r="O80" s="31"/>
+      <c r="P80" s="30"/>
       <c r="Q80" s="1"/>
       <c r="R80" s="11"/>
       <c r="S80" s="11"/>
@@ -4700,22 +4599,22 @@
       <c r="U80" s="2"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A81" s="19"/>
-      <c r="B81" s="20"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="27"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="30"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="32"/>
-      <c r="K81" s="34"/>
-      <c r="L81" s="35"/>
-      <c r="M81" s="38"/>
-      <c r="N81" s="38"/>
-      <c r="O81" s="37"/>
-      <c r="P81" s="36"/>
+      <c r="A81" s="16"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="26"/>
+      <c r="I81" s="26"/>
+      <c r="J81" s="27"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="29"/>
+      <c r="M81" s="32"/>
+      <c r="N81" s="32"/>
+      <c r="O81" s="31"/>
+      <c r="P81" s="30"/>
       <c r="Q81" s="1"/>
       <c r="R81" s="11"/>
       <c r="S81" s="11"/>
@@ -4723,22 +4622,22 @@
       <c r="U81" s="2"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A82" s="19"/>
-      <c r="B82" s="20"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="27"/>
-      <c r="F82" s="28"/>
-      <c r="G82" s="30"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="32"/>
-      <c r="K82" s="34"/>
-      <c r="L82" s="35"/>
-      <c r="M82" s="38"/>
-      <c r="N82" s="38"/>
-      <c r="O82" s="37"/>
-      <c r="P82" s="36"/>
+      <c r="A82" s="16"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="18"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="26"/>
+      <c r="I82" s="26"/>
+      <c r="J82" s="27"/>
+      <c r="K82" s="28"/>
+      <c r="L82" s="29"/>
+      <c r="M82" s="32"/>
+      <c r="N82" s="32"/>
+      <c r="O82" s="31"/>
+      <c r="P82" s="30"/>
       <c r="Q82" s="1"/>
       <c r="R82" s="11"/>
       <c r="S82" s="11"/>
@@ -4746,22 +4645,22 @@
       <c r="U82" s="2"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A83" s="19"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="21"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="28"/>
-      <c r="G83" s="30"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="32"/>
-      <c r="K83" s="34"/>
-      <c r="L83" s="35"/>
-      <c r="M83" s="38"/>
-      <c r="N83" s="38"/>
-      <c r="O83" s="37"/>
-      <c r="P83" s="36"/>
+      <c r="A83" s="16"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="18"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="26"/>
+      <c r="I83" s="26"/>
+      <c r="J83" s="27"/>
+      <c r="K83" s="28"/>
+      <c r="L83" s="29"/>
+      <c r="M83" s="32"/>
+      <c r="N83" s="32"/>
+      <c r="O83" s="31"/>
+      <c r="P83" s="30"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="11"/>
       <c r="S83" s="11"/>
@@ -4769,22 +4668,22 @@
       <c r="U83" s="2"/>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A84" s="19"/>
-      <c r="B84" s="20"/>
-      <c r="C84" s="21"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="28"/>
-      <c r="G84" s="30"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="32"/>
-      <c r="K84" s="34"/>
-      <c r="L84" s="35"/>
-      <c r="M84" s="38"/>
-      <c r="N84" s="38"/>
-      <c r="O84" s="37"/>
-      <c r="P84" s="36"/>
+      <c r="A84" s="16"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="18"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="26"/>
+      <c r="I84" s="26"/>
+      <c r="J84" s="27"/>
+      <c r="K84" s="28"/>
+      <c r="L84" s="29"/>
+      <c r="M84" s="32"/>
+      <c r="N84" s="32"/>
+      <c r="O84" s="31"/>
+      <c r="P84" s="30"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="11"/>
       <c r="S84" s="11"/>
@@ -4792,22 +4691,22 @@
       <c r="U84" s="2"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A85" s="19"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="27"/>
-      <c r="F85" s="28"/>
-      <c r="G85" s="30"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="32"/>
-      <c r="K85" s="34"/>
-      <c r="L85" s="35"/>
-      <c r="M85" s="38"/>
-      <c r="N85" s="38"/>
-      <c r="O85" s="37"/>
-      <c r="P85" s="36"/>
+      <c r="A85" s="16"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="18"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="26"/>
+      <c r="I85" s="26"/>
+      <c r="J85" s="27"/>
+      <c r="K85" s="28"/>
+      <c r="L85" s="29"/>
+      <c r="M85" s="32"/>
+      <c r="N85" s="32"/>
+      <c r="O85" s="31"/>
+      <c r="P85" s="30"/>
       <c r="Q85" s="1"/>
       <c r="R85" s="11"/>
       <c r="S85" s="11"/>
@@ -4815,22 +4714,22 @@
       <c r="U85" s="2"/>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A86" s="19"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="27"/>
-      <c r="F86" s="28"/>
-      <c r="G86" s="30"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="31"/>
-      <c r="J86" s="32"/>
-      <c r="K86" s="34"/>
-      <c r="L86" s="35"/>
-      <c r="M86" s="38"/>
-      <c r="N86" s="38"/>
-      <c r="O86" s="37"/>
-      <c r="P86" s="36"/>
+      <c r="A86" s="16"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="18"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="26"/>
+      <c r="I86" s="26"/>
+      <c r="J86" s="27"/>
+      <c r="K86" s="28"/>
+      <c r="L86" s="29"/>
+      <c r="M86" s="32"/>
+      <c r="N86" s="32"/>
+      <c r="O86" s="31"/>
+      <c r="P86" s="30"/>
       <c r="Q86" s="1"/>
       <c r="R86" s="11"/>
       <c r="S86" s="11"/>
@@ -4838,22 +4737,22 @@
       <c r="U86" s="2"/>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A87" s="19"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="21"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="27"/>
-      <c r="F87" s="28"/>
-      <c r="G87" s="30"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="32"/>
-      <c r="K87" s="34"/>
-      <c r="L87" s="35"/>
-      <c r="M87" s="38"/>
-      <c r="N87" s="38"/>
-      <c r="O87" s="37"/>
-      <c r="P87" s="36"/>
+      <c r="A87" s="16"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="18"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="26"/>
+      <c r="I87" s="26"/>
+      <c r="J87" s="27"/>
+      <c r="K87" s="28"/>
+      <c r="L87" s="29"/>
+      <c r="M87" s="32"/>
+      <c r="N87" s="32"/>
+      <c r="O87" s="31"/>
+      <c r="P87" s="30"/>
       <c r="Q87" s="1"/>
       <c r="R87" s="11"/>
       <c r="S87" s="11"/>
@@ -4861,22 +4760,22 @@
       <c r="U87" s="2"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A88" s="19"/>
-      <c r="B88" s="20"/>
-      <c r="C88" s="21"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="27"/>
-      <c r="F88" s="28"/>
-      <c r="G88" s="30"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="32"/>
-      <c r="K88" s="34"/>
-      <c r="L88" s="35"/>
-      <c r="M88" s="38"/>
-      <c r="N88" s="38"/>
-      <c r="O88" s="37"/>
-      <c r="P88" s="36"/>
+      <c r="A88" s="16"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="18"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="26"/>
+      <c r="I88" s="26"/>
+      <c r="J88" s="27"/>
+      <c r="K88" s="28"/>
+      <c r="L88" s="29"/>
+      <c r="M88" s="32"/>
+      <c r="N88" s="32"/>
+      <c r="O88" s="31"/>
+      <c r="P88" s="30"/>
       <c r="Q88" s="1"/>
       <c r="R88" s="11"/>
       <c r="S88" s="11"/>
@@ -4884,22 +4783,22 @@
       <c r="U88" s="2"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A89" s="19"/>
-      <c r="B89" s="20"/>
-      <c r="C89" s="21"/>
-      <c r="D89" s="23"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="28"/>
-      <c r="G89" s="30"/>
-      <c r="H89" s="31"/>
-      <c r="I89" s="31"/>
-      <c r="J89" s="32"/>
-      <c r="K89" s="34"/>
-      <c r="L89" s="35"/>
-      <c r="M89" s="38"/>
-      <c r="N89" s="38"/>
-      <c r="O89" s="37"/>
-      <c r="P89" s="36"/>
+      <c r="A89" s="16"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="18"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="26"/>
+      <c r="I89" s="26"/>
+      <c r="J89" s="27"/>
+      <c r="K89" s="28"/>
+      <c r="L89" s="29"/>
+      <c r="M89" s="32"/>
+      <c r="N89" s="32"/>
+      <c r="O89" s="31"/>
+      <c r="P89" s="30"/>
       <c r="Q89" s="1"/>
       <c r="R89" s="11"/>
       <c r="S89" s="11"/>
@@ -4907,22 +4806,22 @@
       <c r="U89" s="2"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A90" s="19"/>
-      <c r="B90" s="20"/>
-      <c r="C90" s="21"/>
-      <c r="D90" s="23"/>
-      <c r="E90" s="27"/>
-      <c r="F90" s="28"/>
-      <c r="G90" s="30"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="31"/>
-      <c r="J90" s="32"/>
-      <c r="K90" s="34"/>
-      <c r="L90" s="35"/>
-      <c r="M90" s="38"/>
-      <c r="N90" s="38"/>
-      <c r="O90" s="37"/>
-      <c r="P90" s="36"/>
+      <c r="A90" s="16"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="18"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="26"/>
+      <c r="I90" s="26"/>
+      <c r="J90" s="27"/>
+      <c r="K90" s="28"/>
+      <c r="L90" s="29"/>
+      <c r="M90" s="32"/>
+      <c r="N90" s="32"/>
+      <c r="O90" s="31"/>
+      <c r="P90" s="30"/>
       <c r="Q90" s="1"/>
       <c r="R90" s="11"/>
       <c r="S90" s="11"/>
@@ -4930,22 +4829,22 @@
       <c r="U90" s="2"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A91" s="19"/>
-      <c r="B91" s="20"/>
-      <c r="C91" s="21"/>
-      <c r="D91" s="23"/>
-      <c r="E91" s="27"/>
-      <c r="F91" s="28"/>
-      <c r="G91" s="30"/>
-      <c r="H91" s="31"/>
-      <c r="I91" s="31"/>
-      <c r="J91" s="32"/>
-      <c r="K91" s="34"/>
-      <c r="L91" s="35"/>
-      <c r="M91" s="38"/>
-      <c r="N91" s="38"/>
-      <c r="O91" s="37"/>
-      <c r="P91" s="36"/>
+      <c r="A91" s="16"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="18"/>
+      <c r="D91" s="20"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="26"/>
+      <c r="I91" s="26"/>
+      <c r="J91" s="27"/>
+      <c r="K91" s="28"/>
+      <c r="L91" s="29"/>
+      <c r="M91" s="32"/>
+      <c r="N91" s="32"/>
+      <c r="O91" s="31"/>
+      <c r="P91" s="30"/>
       <c r="Q91" s="1"/>
       <c r="R91" s="11"/>
       <c r="S91" s="11"/>
@@ -4953,22 +4852,22 @@
       <c r="U91" s="2"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A92" s="19"/>
-      <c r="B92" s="20"/>
-      <c r="C92" s="21"/>
-      <c r="D92" s="23"/>
-      <c r="E92" s="27"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="30"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="32"/>
-      <c r="K92" s="34"/>
-      <c r="L92" s="35"/>
-      <c r="M92" s="38"/>
-      <c r="N92" s="38"/>
-      <c r="O92" s="37"/>
-      <c r="P92" s="36"/>
+      <c r="A92" s="16"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="18"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="26"/>
+      <c r="I92" s="26"/>
+      <c r="J92" s="27"/>
+      <c r="K92" s="28"/>
+      <c r="L92" s="29"/>
+      <c r="M92" s="32"/>
+      <c r="N92" s="32"/>
+      <c r="O92" s="31"/>
+      <c r="P92" s="30"/>
       <c r="Q92" s="1"/>
       <c r="R92" s="11"/>
       <c r="S92" s="11"/>
@@ -4976,22 +4875,22 @@
       <c r="U92" s="2"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A93" s="19"/>
-      <c r="B93" s="20"/>
-      <c r="C93" s="21"/>
-      <c r="D93" s="23"/>
-      <c r="E93" s="27"/>
-      <c r="F93" s="28"/>
-      <c r="G93" s="30"/>
-      <c r="H93" s="31"/>
-      <c r="I93" s="31"/>
-      <c r="J93" s="32"/>
-      <c r="K93" s="34"/>
-      <c r="L93" s="35"/>
-      <c r="M93" s="38"/>
-      <c r="N93" s="38"/>
-      <c r="O93" s="37"/>
-      <c r="P93" s="36"/>
+      <c r="A93" s="16"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="18"/>
+      <c r="D93" s="20"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="26"/>
+      <c r="I93" s="26"/>
+      <c r="J93" s="27"/>
+      <c r="K93" s="28"/>
+      <c r="L93" s="29"/>
+      <c r="M93" s="32"/>
+      <c r="N93" s="32"/>
+      <c r="O93" s="31"/>
+      <c r="P93" s="30"/>
       <c r="Q93" s="1"/>
       <c r="R93" s="11"/>
       <c r="S93" s="11"/>
@@ -4999,22 +4898,22 @@
       <c r="U93" s="2"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A94" s="19"/>
-      <c r="B94" s="20"/>
-      <c r="C94" s="21"/>
-      <c r="D94" s="23"/>
-      <c r="E94" s="27"/>
-      <c r="F94" s="28"/>
-      <c r="G94" s="30"/>
-      <c r="H94" s="31"/>
-      <c r="I94" s="31"/>
-      <c r="J94" s="32"/>
-      <c r="K94" s="34"/>
-      <c r="L94" s="35"/>
-      <c r="M94" s="38"/>
-      <c r="N94" s="38"/>
-      <c r="O94" s="37"/>
-      <c r="P94" s="36"/>
+      <c r="A94" s="16"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="18"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="26"/>
+      <c r="I94" s="26"/>
+      <c r="J94" s="27"/>
+      <c r="K94" s="28"/>
+      <c r="L94" s="29"/>
+      <c r="M94" s="32"/>
+      <c r="N94" s="32"/>
+      <c r="O94" s="31"/>
+      <c r="P94" s="30"/>
       <c r="Q94" s="1"/>
       <c r="R94" s="11"/>
       <c r="S94" s="11"/>
@@ -5022,22 +4921,22 @@
       <c r="U94" s="2"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A95" s="19"/>
-      <c r="B95" s="20"/>
-      <c r="C95" s="21"/>
-      <c r="D95" s="23"/>
-      <c r="E95" s="27"/>
-      <c r="F95" s="28"/>
-      <c r="G95" s="30"/>
-      <c r="H95" s="31"/>
-      <c r="I95" s="31"/>
-      <c r="J95" s="32"/>
-      <c r="K95" s="34"/>
-      <c r="L95" s="35"/>
-      <c r="M95" s="38"/>
-      <c r="N95" s="38"/>
-      <c r="O95" s="37"/>
-      <c r="P95" s="36"/>
+      <c r="A95" s="16"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="18"/>
+      <c r="D95" s="20"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="26"/>
+      <c r="I95" s="26"/>
+      <c r="J95" s="27"/>
+      <c r="K95" s="28"/>
+      <c r="L95" s="29"/>
+      <c r="M95" s="32"/>
+      <c r="N95" s="32"/>
+      <c r="O95" s="31"/>
+      <c r="P95" s="30"/>
       <c r="Q95" s="1"/>
       <c r="R95" s="11"/>
       <c r="S95" s="11"/>
@@ -5045,22 +4944,22 @@
       <c r="U95" s="2"/>
     </row>
     <row r="96" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A96" s="19"/>
-      <c r="B96" s="20"/>
-      <c r="C96" s="21"/>
-      <c r="D96" s="23"/>
-      <c r="E96" s="27"/>
-      <c r="F96" s="28"/>
-      <c r="G96" s="30"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="32"/>
-      <c r="K96" s="34"/>
-      <c r="L96" s="35"/>
-      <c r="M96" s="38"/>
-      <c r="N96" s="38"/>
-      <c r="O96" s="37"/>
-      <c r="P96" s="36"/>
+      <c r="A96" s="16"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="18"/>
+      <c r="D96" s="20"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="26"/>
+      <c r="I96" s="26"/>
+      <c r="J96" s="27"/>
+      <c r="K96" s="28"/>
+      <c r="L96" s="29"/>
+      <c r="M96" s="32"/>
+      <c r="N96" s="32"/>
+      <c r="O96" s="31"/>
+      <c r="P96" s="30"/>
       <c r="Q96" s="1"/>
       <c r="R96" s="11"/>
       <c r="S96" s="11"/>
@@ -5068,33 +4967,61 @@
       <c r="U96" s="2"/>
     </row>
     <row r="97" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A97" s="19"/>
-      <c r="B97" s="20"/>
-      <c r="C97" s="21"/>
-      <c r="D97" s="23"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="30"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="32"/>
-      <c r="K97" s="34"/>
-      <c r="L97" s="35"/>
-      <c r="M97" s="38"/>
-      <c r="N97" s="38"/>
-      <c r="O97" s="37"/>
-      <c r="P97" s="36"/>
+      <c r="A97" s="16"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="18"/>
+      <c r="D97" s="20"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="27"/>
+      <c r="K97" s="28"/>
+      <c r="L97" s="29"/>
+      <c r="M97" s="32"/>
+      <c r="N97" s="32"/>
+      <c r="O97" s="31"/>
+      <c r="P97" s="30"/>
       <c r="Q97" s="1"/>
       <c r="R97" s="11"/>
       <c r="S97" s="11"/>
       <c r="T97" s="11"/>
       <c r="U97" s="2"/>
     </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A98" s="16"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="18"/>
+      <c r="D98" s="20"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="26"/>
+      <c r="J98" s="27"/>
+      <c r="K98" s="28"/>
+      <c r="L98" s="29"/>
+      <c r="M98" s="32"/>
+      <c r="N98" s="32"/>
+      <c r="O98" s="31"/>
+      <c r="P98" s="30"/>
+      <c r="Q98" s="1"/>
+      <c r="R98" s="11"/>
+      <c r="S98" s="11"/>
+      <c r="T98" s="11"/>
+      <c r="U98" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:U43">
+  <autoFilter ref="A1:U44">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="U1:U2"/>
@@ -5110,11 +5037,6 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="M1:N1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5135,32 +5057,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="15" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="19" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="19" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="19" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="33" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="19" t="s">
         <v>117</v>
       </c>
     </row>

--- a/fuentes/contenidos/grado11/guion11/ESCALETA_FINAL_CN_11_11_CO_.xlsx
+++ b/fuentes/contenidos/grado11/guion11/ESCALETA_FINAL_CN_11_11_CO_.xlsx
@@ -17,7 +17,7 @@
     <sheet name="DATOS" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$U$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Hoja1!$A$1:$U$43</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="235">
   <si>
     <t>Asignatura</t>
   </si>
@@ -485,12 +485,6 @@
     <t>Recurso M101A-01</t>
   </si>
   <si>
-    <t>La nomenclatura de los alcanos</t>
-  </si>
-  <si>
-    <t>Interactivo que permite reforzar el aprendizaje de la nomenclatura de alcanos</t>
-  </si>
-  <si>
     <t>Recurso F6-01</t>
   </si>
   <si>
@@ -518,12 +512,6 @@
     <t>Recurso M5A-01</t>
   </si>
   <si>
-    <t>Relaciona el uso y las aplicaciones de los alquenos</t>
-  </si>
-  <si>
-    <t>Actividad que permite relacionar los usos y las aplicaciones de los alquenos</t>
-  </si>
-  <si>
     <t>Reconoce las propiedades físicas de los alquenos</t>
   </si>
   <si>
@@ -614,9 +602,6 @@
     <t>Clasifica los hidrocarburos</t>
   </si>
   <si>
-    <t>Actividad que permite reforzar la clasificación de los hidrocarburos</t>
-  </si>
-  <si>
     <t>Recurso M10A-01</t>
   </si>
   <si>
@@ -629,9 +614,6 @@
     <t>Escribe el nombre  de los hidrocarburos alicíclicos</t>
   </si>
   <si>
-    <t xml:space="preserve">Escribe el nombre  de compuestos aromáticos </t>
-  </si>
-  <si>
     <t xml:space="preserve">Actividad que permite practicar la nomenclatura de los compuestos aromáticos </t>
   </si>
   <si>
@@ -701,9 +683,6 @@
     <t>Recurso FQ_10_13_08-01</t>
   </si>
   <si>
-    <t>Los hidrocarburos con triple enlace</t>
-  </si>
-  <si>
     <t xml:space="preserve">Secuencia de imágenes que permite explicar las características y propiedades de los alquinos </t>
   </si>
   <si>
@@ -713,27 +692,12 @@
     <t>Secuencia de imágenes que muestran las características del benceno y los compuestos aromáticos</t>
   </si>
   <si>
-    <t>Competencias: obtención de un hidrocarburo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Competencias: elaboración de velas </t>
-  </si>
-  <si>
-    <t>Actividad que propone realizar una práctica de laboratorio sintetizar un hidrocarburo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Actividad que propone realizar una práctica de laboratorio para elaborar velas aromáticas </t>
-  </si>
-  <si>
     <t>Recurso M102AB-02</t>
   </si>
   <si>
     <t xml:space="preserve">SECUENCIA DE IMÁGENES </t>
   </si>
   <si>
-    <t>Los hidrocarburos cíclicos</t>
-  </si>
-  <si>
     <t>Diaporama F1-03</t>
   </si>
   <si>
@@ -743,7 +707,43 @@
     <t>INTERACTIVO</t>
   </si>
   <si>
-    <t>Recurso F7-01</t>
+    <t>Los alcanos o parafinas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interactivo que muestra las generalidades y la nomenclatura de los alcanos </t>
+  </si>
+  <si>
+    <t>Reconoce el uso y las aplicaciones de los alquenos</t>
+  </si>
+  <si>
+    <t>Actividad que permite identificar los usos y las aplicaciones de los alquenos</t>
+  </si>
+  <si>
+    <t>Los acetilenos o alquinos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los hidrocarburos cíclicos alifáticos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escribe el nombre de los compuestos aromáticos </t>
+  </si>
+  <si>
+    <t>Actividad que permite identificar los diferentes tipos de hidrocarburos</t>
+  </si>
+  <si>
+    <t>Refuerza tu aprendizaje: Los hidrocarburos aromáticos</t>
+  </si>
+  <si>
+    <t>Competencias: síntesis de acetileno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actividad que propone realizar una práctica de laboratorio para  obtener acetileno </t>
+  </si>
+  <si>
+    <t>Competencias: investigación de polímeros sintéticos</t>
+  </si>
+  <si>
+    <t>Actividad que propone realizar  un trabajo colaborativo para consultar sobre los polímeros producidos a partir de alquenos</t>
   </si>
 </sst>
 </file>
@@ -779,7 +779,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -825,12 +825,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1070,7 +1064,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1126,27 +1120,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1171,33 +1145,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1478,10 +1428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U98"/>
+  <dimension ref="A1:U97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F40" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1509,94 +1459,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F1" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G1" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="46" t="s">
+      <c r="H1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="46" t="s">
+      <c r="I1" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="46" t="s">
+      <c r="J1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="46" t="s">
+      <c r="N1" s="43"/>
+      <c r="O1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="S1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="46" t="s">
+      <c r="T1" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="46" t="s">
+      <c r="U1" s="36" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:21" s="10" customFormat="1" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="47"/>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="51"/>
-      <c r="L2" s="49"/>
+      <c r="A2" s="37"/>
+      <c r="B2" s="37"/>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="39"/>
       <c r="M2" s="34" t="s">
         <v>87</v>
       </c>
       <c r="N2" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="47"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
+      <c r="R2" s="37"/>
+      <c r="S2" s="37"/>
+      <c r="T2" s="37"/>
+      <c r="U2" s="37"/>
     </row>
     <row r="3" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -1648,13 +1598,13 @@
         <v>128</v>
       </c>
       <c r="S3" s="11" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1898,7 +1848,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>67</v>
       </c>
@@ -1917,81 +1867,107 @@
       <c r="F9" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="G9" s="25"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="32"/>
+      <c r="G9" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="H9" s="26">
+        <v>5</v>
+      </c>
+      <c r="I9" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>223</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9" s="32" t="s">
+        <v>36</v>
+      </c>
       <c r="N9" s="32"/>
       <c r="O9" s="31"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="11"/>
-      <c r="S9" s="11"/>
-      <c r="T9" s="11"/>
-      <c r="U9" s="2"/>
-    </row>
-    <row r="10" spans="1:21" s="70" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="68" t="s">
+      <c r="P9" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>6</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="U9" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="38" t="s">
+      <c r="C10" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="36" t="s">
+      <c r="D10" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="37" t="s">
+      <c r="E10" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="38" t="s">
+      <c r="F10" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="G10" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="H10" s="39">
-        <v>5</v>
-      </c>
-      <c r="I10" s="39" t="s">
+      <c r="G10" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="H10" s="26">
+        <v>6</v>
+      </c>
+      <c r="I10" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="27" t="s">
+        <v>203</v>
+      </c>
+      <c r="K10" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L10" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="O10" s="31"/>
+      <c r="P10" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="J10" s="40" t="s">
-        <v>149</v>
-      </c>
-      <c r="K10" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="M10" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="N10" s="42"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q10" s="44">
+      <c r="Q10" s="1">
         <v>6</v>
       </c>
-      <c r="R10" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="S10" s="45" t="s">
-        <v>129</v>
-      </c>
-      <c r="T10" s="45" t="s">
-        <v>234</v>
-      </c>
-      <c r="U10" s="69" t="s">
-        <v>130</v>
+      <c r="R10" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S10" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="T10" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="U10" s="2" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -2008,22 +1984,20 @@
         <v>98</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="22" t="s">
-        <v>101</v>
-      </c>
+        <v>102</v>
+      </c>
+      <c r="F11" s="22"/>
       <c r="G11" s="25" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="H11" s="26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="I11" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="27" t="s">
-        <v>209</v>
+        <v>150</v>
       </c>
       <c r="K11" s="28" t="s">
         <v>69</v>
@@ -2033,7 +2007,7 @@
       </c>
       <c r="M11" s="32"/>
       <c r="N11" s="32" t="s">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="O11" s="31"/>
       <c r="P11" s="30" t="s">
@@ -2046,16 +2020,16 @@
         <v>138</v>
       </c>
       <c r="S11" s="11" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="T11" s="11" t="s">
-        <v>219</v>
+        <v>151</v>
       </c>
       <c r="U11" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
         <v>67</v>
       </c>
@@ -2069,52 +2043,26 @@
         <v>98</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F12" s="22"/>
-      <c r="G12" s="25" t="s">
-        <v>151</v>
-      </c>
-      <c r="H12" s="26">
-        <v>7</v>
-      </c>
-      <c r="I12" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="K12" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="L12" s="29" t="s">
-        <v>32</v>
-      </c>
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="29"/>
       <c r="M12" s="32"/>
-      <c r="N12" s="32" t="s">
-        <v>60</v>
-      </c>
+      <c r="N12" s="32"/>
       <c r="O12" s="31"/>
-      <c r="P12" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>6</v>
-      </c>
-      <c r="R12" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="S12" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="T12" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="U12" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P12" s="30"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+      <c r="U12" s="2"/>
+    </row>
+    <row r="13" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>67</v>
       </c>
@@ -2128,24 +2076,50 @@
         <v>98</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F13" s="22"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="29"/>
+      <c r="G13" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="H13" s="26">
+        <v>8</v>
+      </c>
+      <c r="I13" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="K13" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L13" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
+      <c r="N13" s="32" t="s">
+        <v>62</v>
+      </c>
       <c r="O13" s="31"/>
-      <c r="P13" s="30"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
-      <c r="U13" s="2"/>
+      <c r="P13" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>6</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S13" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="T13" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="U13" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="14" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -2158,34 +2132,32 @@
         <v>91</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>97</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="E14" s="21"/>
       <c r="F14" s="22"/>
       <c r="G14" s="25" t="s">
-        <v>145</v>
+        <v>211</v>
       </c>
       <c r="H14" s="26">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I14" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J14" s="27" t="s">
-        <v>155</v>
+        <v>210</v>
       </c>
       <c r="K14" s="28" t="s">
         <v>69</v>
       </c>
       <c r="L14" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32" t="s">
-        <v>62</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="M14" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="N14" s="32"/>
       <c r="O14" s="31"/>
       <c r="P14" s="30" t="s">
         <v>19</v>
@@ -2194,16 +2166,16 @@
         <v>6</v>
       </c>
       <c r="R14" s="11" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="S14" s="11" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="T14" s="11" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="U14" s="2" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2219,30 +2191,32 @@
       <c r="D15" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="E15" s="21"/>
+      <c r="E15" s="21" t="s">
+        <v>105</v>
+      </c>
       <c r="F15" s="22"/>
       <c r="G15" s="25" t="s">
-        <v>217</v>
+        <v>155</v>
       </c>
       <c r="H15" s="26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I15" s="26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="J15" s="27" t="s">
-        <v>216</v>
+        <v>201</v>
       </c>
       <c r="K15" s="28" t="s">
         <v>69</v>
       </c>
       <c r="L15" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="M15" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="N15" s="32"/>
+        <v>32</v>
+      </c>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32" t="s">
+        <v>81</v>
+      </c>
       <c r="O15" s="31"/>
       <c r="P15" s="30" t="s">
         <v>19</v>
@@ -2251,19 +2225,19 @@
         <v>6</v>
       </c>
       <c r="R15" s="11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="S15" s="11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="T15" s="11" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>67</v>
       </c>
@@ -2277,20 +2251,20 @@
         <v>104</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="25" t="s">
         <v>157</v>
       </c>
       <c r="H16" s="26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="I16" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J16" s="27" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="K16" s="28" t="s">
         <v>69</v>
@@ -2300,7 +2274,7 @@
       </c>
       <c r="M16" s="32"/>
       <c r="N16" s="32" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="O16" s="31"/>
       <c r="P16" s="30" t="s">
@@ -2316,7 +2290,7 @@
         <v>139</v>
       </c>
       <c r="T16" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="U16" s="2" t="s">
         <v>140</v>
@@ -2336,20 +2310,20 @@
         <v>104</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="25" t="s">
-        <v>161</v>
+        <v>224</v>
       </c>
       <c r="H17" s="26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I17" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J17" s="27" t="s">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c r="K17" s="28" t="s">
         <v>69</v>
@@ -2359,7 +2333,7 @@
       </c>
       <c r="M17" s="32"/>
       <c r="N17" s="32" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="O17" s="31"/>
       <c r="P17" s="30" t="s">
@@ -2375,13 +2349,13 @@
         <v>139</v>
       </c>
       <c r="T17" s="11" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="U17" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="16" t="s">
         <v>67</v>
       </c>
@@ -2395,20 +2369,20 @@
         <v>104</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="25" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H18" s="26">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I18" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="27" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="K18" s="28" t="s">
         <v>69</v>
@@ -2418,7 +2392,7 @@
       </c>
       <c r="M18" s="32"/>
       <c r="N18" s="32" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="O18" s="31"/>
       <c r="P18" s="30" t="s">
@@ -2434,13 +2408,13 @@
         <v>139</v>
       </c>
       <c r="T18" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="U18" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
         <v>67</v>
       </c>
@@ -2451,34 +2425,32 @@
         <v>91</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>97</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E19" s="21"/>
       <c r="F19" s="22"/>
       <c r="G19" s="25" t="s">
-        <v>167</v>
+        <v>226</v>
       </c>
       <c r="H19" s="26">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I19" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J19" s="27" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="K19" s="28" t="s">
         <v>69</v>
       </c>
       <c r="L19" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32" t="s">
-        <v>62</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="M19" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="N19" s="32"/>
       <c r="O19" s="31"/>
       <c r="P19" s="30" t="s">
         <v>19</v>
@@ -2490,16 +2462,16 @@
         <v>138</v>
       </c>
       <c r="S19" s="11" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="T19" s="11" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="U19" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
         <v>67</v>
       </c>
@@ -2512,30 +2484,32 @@
       <c r="D20" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="E20" s="21"/>
+      <c r="E20" s="21" t="s">
+        <v>111</v>
+      </c>
       <c r="F20" s="22"/>
       <c r="G20" s="25" t="s">
-        <v>220</v>
+        <v>166</v>
       </c>
       <c r="H20" s="26">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J20" s="27" t="s">
-        <v>221</v>
+        <v>202</v>
       </c>
       <c r="K20" s="28" t="s">
         <v>69</v>
       </c>
       <c r="L20" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="M20" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="N20" s="32"/>
+        <v>32</v>
+      </c>
+      <c r="M20" s="32"/>
+      <c r="N20" s="32" t="s">
+        <v>81</v>
+      </c>
       <c r="O20" s="31"/>
       <c r="P20" s="30" t="s">
         <v>19</v>
@@ -2547,13 +2521,13 @@
         <v>138</v>
       </c>
       <c r="S20" s="11" t="s">
-        <v>184</v>
+        <v>139</v>
       </c>
       <c r="T20" s="11" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>186</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="45" x14ac:dyDescent="0.25">
@@ -2574,16 +2548,16 @@
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="25" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="H21" s="26">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I21" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J21" s="27" t="s">
-        <v>208</v>
+        <v>167</v>
       </c>
       <c r="K21" s="28" t="s">
         <v>69</v>
@@ -2593,11 +2567,11 @@
       </c>
       <c r="M21" s="32"/>
       <c r="N21" s="32" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="O21" s="31"/>
       <c r="P21" s="30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="1">
         <v>6</v>
@@ -2609,7 +2583,7 @@
         <v>139</v>
       </c>
       <c r="T21" s="11" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="U21" s="2" t="s">
         <v>140</v>
@@ -2629,14 +2603,14 @@
         <v>108</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="25" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="H22" s="26">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I22" s="26" t="s">
         <v>20</v>
@@ -2652,11 +2626,11 @@
       </c>
       <c r="M22" s="32"/>
       <c r="N22" s="32" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="O22" s="31"/>
       <c r="P22" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q22" s="1">
         <v>6</v>
@@ -2668,13 +2642,13 @@
         <v>139</v>
       </c>
       <c r="T22" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="U22" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="16" t="s">
         <v>67</v>
       </c>
@@ -2688,52 +2662,26 @@
         <v>108</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F23" s="22"/>
-      <c r="G23" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="H23" s="26">
-        <v>17</v>
-      </c>
-      <c r="I23" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="27" t="s">
-        <v>175</v>
-      </c>
-      <c r="K23" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="L23" s="29" t="s">
-        <v>32</v>
-      </c>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="26"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="29"/>
       <c r="M23" s="32"/>
-      <c r="N23" s="32" t="s">
-        <v>53</v>
-      </c>
+      <c r="N23" s="32"/>
       <c r="O23" s="31"/>
-      <c r="P23" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q23" s="1">
-        <v>6</v>
-      </c>
-      <c r="R23" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="S23" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="T23" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="U23" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P23" s="30"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="11"/>
+      <c r="T23" s="11"/>
+      <c r="U23" s="2"/>
+    </row>
+    <row r="24" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="16" t="s">
         <v>67</v>
       </c>
@@ -2747,26 +2695,52 @@
         <v>108</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="F24" s="22"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="29"/>
+      <c r="G24" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="H24" s="26">
+        <v>18</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" s="27" t="s">
+        <v>173</v>
+      </c>
+      <c r="K24" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L24" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="M24" s="32"/>
-      <c r="N24" s="32"/>
+      <c r="N24" s="32" t="s">
+        <v>62</v>
+      </c>
       <c r="O24" s="31"/>
-      <c r="P24" s="30"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="2"/>
-    </row>
-    <row r="25" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="P24" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>6</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S24" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="T24" s="11" t="s">
+        <v>174</v>
+      </c>
+      <c r="U24" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="35" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="16" t="s">
         <v>67</v>
       </c>
@@ -2777,34 +2751,32 @@
         <v>91</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>97</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E25" s="21"/>
       <c r="F25" s="22"/>
       <c r="G25" s="25" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="H25" s="26">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="I25" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J25" s="27" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="K25" s="28" t="s">
         <v>69</v>
       </c>
       <c r="L25" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="M25" s="32"/>
-      <c r="N25" s="32" t="s">
-        <v>62</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="M25" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="N25" s="32"/>
       <c r="O25" s="31"/>
       <c r="P25" s="30" t="s">
         <v>19</v>
@@ -2813,76 +2785,78 @@
         <v>6</v>
       </c>
       <c r="R25" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="S25" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="T25" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="U25" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D26" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="25" t="s">
+        <v>190</v>
+      </c>
+      <c r="H26" s="26">
+        <v>20</v>
+      </c>
+      <c r="I26" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" s="27" t="s">
+        <v>192</v>
+      </c>
+      <c r="K26" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L26" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="M26" s="32"/>
+      <c r="N26" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="O26" s="31"/>
+      <c r="P26" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>6</v>
+      </c>
+      <c r="R26" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="S25" s="11" t="s">
+      <c r="S26" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="T25" s="11" t="s">
-        <v>178</v>
-      </c>
-      <c r="U25" s="2" t="s">
+      <c r="T26" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="U26" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:21" s="67" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="C26" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="D26" s="57" t="s">
-        <v>112</v>
-      </c>
-      <c r="E26" s="55"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="57" t="s">
-        <v>230</v>
-      </c>
-      <c r="H26" s="58">
-        <v>19</v>
-      </c>
-      <c r="I26" s="58" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="K26" s="55" t="s">
-        <v>69</v>
-      </c>
-      <c r="L26" s="60" t="s">
-        <v>233</v>
-      </c>
-      <c r="M26" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="N26" s="61"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="63" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q26" s="64">
-        <v>6</v>
-      </c>
-      <c r="R26" s="65" t="s">
-        <v>128</v>
-      </c>
-      <c r="S26" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="T26" s="65" t="s">
-        <v>165</v>
-      </c>
-      <c r="U26" s="66" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
         <v>67</v>
       </c>
@@ -2896,50 +2870,24 @@
         <v>112</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F27" s="22"/>
-      <c r="G27" s="25" t="s">
-        <v>195</v>
-      </c>
-      <c r="H27" s="26">
-        <v>20</v>
-      </c>
-      <c r="I27" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="27" t="s">
-        <v>198</v>
-      </c>
-      <c r="K27" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="L27" s="29" t="s">
-        <v>32</v>
-      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="26"/>
+      <c r="I27" s="26"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="29"/>
       <c r="M27" s="32"/>
-      <c r="N27" s="32" t="s">
-        <v>47</v>
-      </c>
+      <c r="N27" s="32"/>
       <c r="O27" s="31"/>
-      <c r="P27" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="1">
-        <v>6</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="S27" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="T27" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="U27" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+      <c r="U27" s="2"/>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
@@ -2955,7 +2903,7 @@
         <v>112</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F28" s="22"/>
       <c r="G28" s="25"/>
@@ -2974,7 +2922,7 @@
       <c r="T28" s="11"/>
       <c r="U28" s="2"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>67</v>
       </c>
@@ -2988,26 +2936,52 @@
         <v>112</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F29" s="22"/>
-      <c r="G29" s="25"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-      <c r="J29" s="27"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="29"/>
+      <c r="G29" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="H29" s="26">
+        <v>21</v>
+      </c>
+      <c r="I29" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="K29" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L29" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="M29" s="32"/>
-      <c r="N29" s="32"/>
+      <c r="N29" s="32" t="s">
+        <v>62</v>
+      </c>
       <c r="O29" s="31"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="2"/>
-    </row>
-    <row r="30" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="P29" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>6</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S29" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="T29" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="16" t="s">
         <v>67</v>
       </c>
@@ -3018,55 +2992,27 @@
         <v>91</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>116</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="E30" s="21"/>
       <c r="F30" s="22"/>
-      <c r="G30" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="H30" s="26">
-        <v>21</v>
-      </c>
-      <c r="I30" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="27" t="s">
-        <v>181</v>
-      </c>
-      <c r="K30" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="L30" s="29" t="s">
-        <v>32</v>
-      </c>
+      <c r="G30" s="25"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="29"/>
       <c r="M30" s="32"/>
-      <c r="N30" s="32" t="s">
-        <v>62</v>
-      </c>
+      <c r="N30" s="32"/>
       <c r="O30" s="31"/>
-      <c r="P30" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q30" s="1">
-        <v>6</v>
-      </c>
-      <c r="R30" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="S30" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="T30" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="U30" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P30" s="30"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+      <c r="U30" s="2"/>
+    </row>
+    <row r="31" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A31" s="16" t="s">
         <v>67</v>
       </c>
@@ -3079,25 +3025,55 @@
       <c r="D31" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="E31" s="21"/>
+      <c r="E31" s="21" t="s">
+        <v>118</v>
+      </c>
       <c r="F31" s="22"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="28"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="32"/>
+      <c r="G31" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="H31" s="26">
+        <v>22</v>
+      </c>
+      <c r="I31" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="J31" s="27" t="s">
+        <v>216</v>
+      </c>
+      <c r="K31" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L31" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="M31" s="32" t="s">
+        <v>34</v>
+      </c>
       <c r="N31" s="32"/>
-      <c r="O31" s="31"/>
-      <c r="P31" s="30"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="2"/>
-    </row>
-    <row r="32" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+      <c r="O31" s="31" t="s">
+        <v>179</v>
+      </c>
+      <c r="P31" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>6</v>
+      </c>
+      <c r="R31" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S31" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="T31" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
         <v>67</v>
       </c>
@@ -3111,52 +3087,26 @@
         <v>117</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>118</v>
-      </c>
-      <c r="F32" s="22"/>
-      <c r="G32" s="25" t="s">
-        <v>222</v>
-      </c>
-      <c r="H32" s="26">
-        <v>22</v>
-      </c>
-      <c r="I32" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="J32" s="27" t="s">
-        <v>223</v>
-      </c>
-      <c r="K32" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="L32" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="M32" s="32" t="s">
-        <v>34</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="F32" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="G32" s="25"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+      <c r="J32" s="27"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="32"/>
       <c r="N32" s="32"/>
-      <c r="O32" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="P32" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q32" s="1">
-        <v>6</v>
-      </c>
-      <c r="R32" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="S32" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="T32" s="11" t="s">
-        <v>231</v>
-      </c>
-      <c r="U32" s="2" t="s">
-        <v>186</v>
-      </c>
+      <c r="O32" s="31"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="2"/>
     </row>
     <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="16" t="s">
@@ -3175,7 +3125,7 @@
         <v>119</v>
       </c>
       <c r="F33" s="22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G33" s="25"/>
       <c r="H33" s="26"/>
@@ -3193,7 +3143,7 @@
       <c r="T33" s="11"/>
       <c r="U33" s="2"/>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A34" s="16" t="s">
         <v>67</v>
       </c>
@@ -3210,25 +3160,51 @@
         <v>119</v>
       </c>
       <c r="F34" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="G34" s="25"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-      <c r="J34" s="27"/>
-      <c r="K34" s="28"/>
-      <c r="L34" s="29"/>
+        <v>122</v>
+      </c>
+      <c r="G34" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="H34" s="26">
+        <v>23</v>
+      </c>
+      <c r="I34" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="K34" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L34" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="M34" s="32"/>
-      <c r="N34" s="32"/>
+      <c r="N34" s="32" t="s">
+        <v>47</v>
+      </c>
       <c r="O34" s="31"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="2"/>
-    </row>
-    <row r="35" spans="1:21" ht="45" x14ac:dyDescent="0.25">
+      <c r="P34" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>6</v>
+      </c>
+      <c r="R34" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S34" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="T34" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="16" t="s">
         <v>67</v>
       </c>
@@ -3242,54 +3218,26 @@
         <v>117</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="F35" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>196</v>
-      </c>
-      <c r="H35" s="26">
-        <v>23</v>
-      </c>
-      <c r="I35" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J35" s="27" t="s">
-        <v>197</v>
-      </c>
-      <c r="K35" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="L35" s="29" t="s">
-        <v>32</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="F35" s="22"/>
+      <c r="G35" s="25"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+      <c r="J35" s="27"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="29"/>
       <c r="M35" s="32"/>
-      <c r="N35" s="32" t="s">
-        <v>47</v>
-      </c>
+      <c r="N35" s="32"/>
       <c r="O35" s="31"/>
-      <c r="P35" s="30" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q35" s="1">
-        <v>6</v>
-      </c>
-      <c r="R35" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="S35" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="T35" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="U35" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="P35" s="30"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+      <c r="U35" s="2"/>
+    </row>
+    <row r="36" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="16" t="s">
         <v>67</v>
       </c>
@@ -3303,24 +3251,50 @@
         <v>117</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F36" s="22"/>
-      <c r="G36" s="25"/>
-      <c r="H36" s="26"/>
-      <c r="I36" s="26"/>
-      <c r="J36" s="27"/>
-      <c r="K36" s="28"/>
-      <c r="L36" s="29"/>
+      <c r="G36" s="25" t="s">
+        <v>186</v>
+      </c>
+      <c r="H36" s="26">
+        <v>24</v>
+      </c>
+      <c r="I36" s="26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="K36" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="L36" s="29" t="s">
+        <v>32</v>
+      </c>
       <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
+      <c r="N36" s="32" t="s">
+        <v>24</v>
+      </c>
       <c r="O36" s="31"/>
-      <c r="P36" s="30"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="2"/>
+      <c r="P36" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>6</v>
+      </c>
+      <c r="R36" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S36" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="T36" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="37" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
@@ -3340,16 +3314,16 @@
       </c>
       <c r="F37" s="22"/>
       <c r="G37" s="25" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H37" s="26">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I37" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J37" s="27" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K37" s="28" t="s">
         <v>69</v>
@@ -3359,7 +3333,7 @@
       </c>
       <c r="M37" s="32"/>
       <c r="N37" s="32" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="O37" s="31"/>
       <c r="P37" s="30" t="s">
@@ -3375,13 +3349,13 @@
         <v>139</v>
       </c>
       <c r="T37" s="11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="U37" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="38" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="16" t="s">
         <v>67</v>
       </c>
@@ -3395,20 +3369,20 @@
         <v>117</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F38" s="22"/>
       <c r="G38" s="25" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="H38" s="26">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="I38" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J38" s="27" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="K38" s="28" t="s">
         <v>69</v>
@@ -3418,29 +3392,29 @@
       </c>
       <c r="M38" s="32"/>
       <c r="N38" s="32" t="s">
-        <v>47</v>
+        <v>62</v>
       </c>
       <c r="O38" s="31"/>
       <c r="P38" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="Q38" s="1">
         <v>6</v>
       </c>
       <c r="R38" s="11" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="S38" s="11" t="s">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="T38" s="11" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="U38" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A39" s="16" t="s">
         <v>67</v>
       </c>
@@ -3451,23 +3425,21 @@
         <v>91</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>116</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="E39" s="21"/>
       <c r="F39" s="22"/>
       <c r="G39" s="25" t="s">
-        <v>117</v>
+        <v>231</v>
       </c>
       <c r="H39" s="26">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I39" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J39" s="27" t="s">
-        <v>187</v>
+        <v>232</v>
       </c>
       <c r="K39" s="28" t="s">
         <v>69</v>
@@ -3477,7 +3449,7 @@
       </c>
       <c r="M39" s="32"/>
       <c r="N39" s="32" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O39" s="31"/>
       <c r="P39" s="30" t="s">
@@ -3487,19 +3459,19 @@
         <v>6</v>
       </c>
       <c r="R39" s="11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="S39" s="11" t="s">
-        <v>214</v>
+        <v>139</v>
       </c>
       <c r="T39" s="11" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="16" t="s">
         <v>67</v>
       </c>
@@ -3515,16 +3487,16 @@
       <c r="E40" s="21"/>
       <c r="F40" s="22"/>
       <c r="G40" s="25" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="H40" s="26">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I40" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J40" s="27" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="K40" s="28" t="s">
         <v>69</v>
@@ -3550,13 +3522,13 @@
         <v>139</v>
       </c>
       <c r="T40" s="11" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="U40" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="16" t="s">
         <v>67</v>
       </c>
@@ -3567,53 +3539,41 @@
         <v>91</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>125</v>
+        <v>195</v>
       </c>
       <c r="E41" s="21"/>
       <c r="F41" s="22"/>
       <c r="G41" s="25" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
       <c r="H41" s="26">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I41" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J41" s="27" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="K41" s="28" t="s">
         <v>69</v>
       </c>
       <c r="L41" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M41" s="32"/>
-      <c r="N41" s="32" t="s">
-        <v>64</v>
-      </c>
+      <c r="N41" s="32"/>
       <c r="O41" s="31"/>
       <c r="P41" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q41" s="1">
-        <v>6</v>
-      </c>
-      <c r="R41" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="S41" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="T41" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="U41" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q41" s="1"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="2"/>
+    </row>
+    <row r="42" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="16" t="s">
         <v>67</v>
       </c>
@@ -3624,39 +3584,51 @@
         <v>91</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="E42" s="21"/>
       <c r="F42" s="22"/>
       <c r="G42" s="25" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="H42" s="26">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I42" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J42" s="27" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="K42" s="28" t="s">
         <v>69</v>
       </c>
       <c r="L42" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
+      <c r="N42" s="32" t="s">
+        <v>81</v>
+      </c>
       <c r="O42" s="31"/>
       <c r="P42" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="2"/>
+      <c r="Q42" s="1">
+        <v>6</v>
+      </c>
+      <c r="R42" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="S42" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="T42" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="43" spans="1:21" ht="60" x14ac:dyDescent="0.25">
       <c r="A43" s="16" t="s">
@@ -3668,22 +3640,20 @@
       <c r="C43" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D43" s="19" t="s">
-        <v>201</v>
-      </c>
+      <c r="D43" s="19"/>
       <c r="E43" s="21"/>
       <c r="F43" s="22"/>
       <c r="G43" s="25" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="H43" s="26">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I43" s="26" t="s">
         <v>20</v>
       </c>
       <c r="J43" s="27" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K43" s="28" t="s">
         <v>69</v>
@@ -3693,11 +3663,11 @@
       </c>
       <c r="M43" s="32"/>
       <c r="N43" s="32" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="O43" s="31"/>
       <c r="P43" s="30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="Q43" s="1">
         <v>6</v>
@@ -3709,66 +3679,34 @@
         <v>139</v>
       </c>
       <c r="T43" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="U43" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:21" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>91</v>
-      </c>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="16"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="18"/>
       <c r="D44" s="19"/>
       <c r="E44" s="21"/>
       <c r="F44" s="22"/>
-      <c r="G44" s="25" t="s">
-        <v>212</v>
-      </c>
-      <c r="H44" s="26">
-        <v>31</v>
-      </c>
-      <c r="I44" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="J44" s="27" t="s">
-        <v>213</v>
-      </c>
-      <c r="K44" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="L44" s="29" t="s">
-        <v>32</v>
-      </c>
+      <c r="G44" s="25"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="27"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="29"/>
       <c r="M44" s="32"/>
-      <c r="N44" s="32" t="s">
-        <v>63</v>
-      </c>
+      <c r="N44" s="32"/>
       <c r="O44" s="31"/>
-      <c r="P44" s="30" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q44" s="1">
-        <v>6</v>
-      </c>
-      <c r="R44" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="S44" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="T44" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="U44" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="P44" s="30"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
+      <c r="U44" s="2"/>
     </row>
     <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="16"/>
@@ -3839,7 +3777,7 @@
       <c r="T47" s="11"/>
       <c r="U47" s="2"/>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A48" s="16"/>
       <c r="B48" s="17"/>
       <c r="C48" s="18"/>
@@ -3862,7 +3800,7 @@
       <c r="T48" s="11"/>
       <c r="U48" s="2"/>
     </row>
-    <row r="49" spans="1:21" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="16"/>
       <c r="B49" s="17"/>
       <c r="C49" s="18"/>
@@ -4096,9 +4034,9 @@
       <c r="A59" s="16"/>
       <c r="B59" s="17"/>
       <c r="C59" s="18"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="21"/>
-      <c r="F59" s="22"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="24"/>
       <c r="G59" s="25"/>
       <c r="H59" s="26"/>
       <c r="I59" s="26"/>
@@ -4989,39 +4927,11 @@
       <c r="T97" s="11"/>
       <c r="U97" s="2"/>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A98" s="16"/>
-      <c r="B98" s="17"/>
-      <c r="C98" s="18"/>
-      <c r="D98" s="20"/>
-      <c r="E98" s="23"/>
-      <c r="F98" s="24"/>
-      <c r="G98" s="25"/>
-      <c r="H98" s="26"/>
-      <c r="I98" s="26"/>
-      <c r="J98" s="27"/>
-      <c r="K98" s="28"/>
-      <c r="L98" s="29"/>
-      <c r="M98" s="32"/>
-      <c r="N98" s="32"/>
-      <c r="O98" s="31"/>
-      <c r="P98" s="30"/>
-      <c r="Q98" s="1"/>
-      <c r="R98" s="11"/>
-      <c r="S98" s="11"/>
-      <c r="T98" s="11"/>
-      <c r="U98" s="2"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:U44">
+  <autoFilter ref="A1:U43">
     <filterColumn colId="12" showButton="0"/>
   </autoFilter>
   <mergeCells count="20">
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="A1:A2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="U1:U2"/>
@@ -5037,6 +4947,11 @@
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="A1:A2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
